--- a/Pro_files/01-Worker_Record_Sheet-Template (1).xlsx
+++ b/Pro_files/01-Worker_Record_Sheet-Template (1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28706"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgresources-my.sharepoint.com/personal/user2_cgresources_onmicrosoft_com/Documents/VISHNU/05-ERP_Planning&amp;_Development/Given_Reference/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{0082D930-925F-45E4-9EE0-2728C04D917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB78D69A-DD44-47CE-8694-85298136C4A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Worker" sheetId="2" r:id="rId1"/>
@@ -35,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Staff!$A$1:$AQ$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Worker!$A$1:$AW$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,28 +46,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="485">
   <si>
@@ -1559,7 +1531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
@@ -2794,21 +2766,41 @@
     <xf numFmtId="1" fontId="5" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2827,11 +2819,17 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2851,18 +2849,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2887,6 +2873,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2968,32 +2960,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 8" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="2"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
@@ -3391,7 +3363,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9084161D-B8E5-2279-A987-92DCE4835F0C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9084161D-B8E5-2279-A987-92DCE4835F0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3375,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3423,7 +3395,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3453,7 +3425,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF63223F-18DC-113E-87D2-094AB9433DE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF63223F-18DC-113E-87D2-094AB9433DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,7 +3437,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3485,7 +3457,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3515,7 +3487,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CEE679-F8A3-5F0B-2A6F-16722B4D3802}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CEE679-F8A3-5F0B-2A6F-16722B4D3802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3499,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3547,7 +3519,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3577,7 +3549,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0681F23-AC59-15DF-29CD-289A28802C95}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0681F23-AC59-15DF-29CD-289A28802C95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3561,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3609,7 +3581,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3639,7 +3611,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52903F81-B65E-28AC-436E-98A8F1622CC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52903F81-B65E-28AC-436E-98A8F1622CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3651,7 +3623,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3671,7 +3643,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3701,7 +3673,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80806A19-6A75-C8F0-9CF8-6EDC198CEA6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80806A19-6A75-C8F0-9CF8-6EDC198CEA6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3733,7 +3705,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3763,7 +3735,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B676CC-D42E-34DF-67BC-457AAED519C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B676CC-D42E-34DF-67BC-457AAED519C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3795,7 +3767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3825,7 +3797,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB47BE7-00C0-0B38-E598-13A0BC443F4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB47BE7-00C0-0B38-E598-13A0BC443F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3837,7 +3809,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3857,7 +3829,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3887,7 +3859,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BE561D-BD66-03FB-E4E3-6F334809F5C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BE561D-BD66-03FB-E4E3-6F334809F5C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3871,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3919,7 +3891,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3949,7 +3921,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728A5CCB-1938-DD5A-281B-9EE140B32106}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728A5CCB-1938-DD5A-281B-9EE140B32106}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,7 +3933,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3981,7 +3953,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3993,68 +3965,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>NA</v>
-    <v>2</v>
-    <v>4</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="argument" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="ptg" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4312,14 +4222,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4329,99 +4239,99 @@
       <selection pane="bottomRight" activeCell="A24" sqref="A24:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="211" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="211" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" customWidth="1"/>
+    <col min="29" max="29" width="18.109375" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" customWidth="1"/>
+    <col min="31" max="31" width="6.6640625" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" customWidth="1"/>
     <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18.88671875" customWidth="1"/>
     <col min="35" max="35" width="25" customWidth="1"/>
     <col min="36" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" customWidth="1"/>
+    <col min="37" max="37" width="10.109375" customWidth="1"/>
     <col min="38" max="38" width="25" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" customWidth="1"/>
+    <col min="39" max="39" width="13.109375" customWidth="1"/>
     <col min="40" max="40" width="25" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" customWidth="1"/>
     <col min="42" max="42" width="25" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="24.42578125" customWidth="1"/>
-    <col min="45" max="45" width="15.28515625" customWidth="1"/>
-    <col min="46" max="46" width="13.85546875" customWidth="1"/>
-    <col min="47" max="47" width="28.7109375" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" customWidth="1"/>
-    <col min="49" max="49" width="41.28515625" style="194" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" customWidth="1"/>
+    <col min="44" max="44" width="24.44140625" customWidth="1"/>
+    <col min="45" max="45" width="15.33203125" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" customWidth="1"/>
+    <col min="47" max="47" width="28.6640625" customWidth="1"/>
+    <col min="48" max="48" width="10.88671875" style="2" customWidth="1"/>
+    <col min="49" max="49" width="41.33203125" style="194" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="276" t="s">
+      <c r="C1" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="265" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="270" t="s">
+      <c r="E1" s="265" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="270" t="s">
+      <c r="F1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="265" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="270" t="s">
+      <c r="H1" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="270" t="s">
+      <c r="I1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="270" t="s">
+      <c r="J1" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="270" t="s">
+      <c r="L1" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="270" t="s">
+      <c r="M1" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="270" t="s">
+      <c r="N1" s="265" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="231" t="s">
@@ -4430,71 +4340,71 @@
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="232"/>
-      <c r="S1" s="261" t="s">
+      <c r="S1" s="267" t="s">
         <v>290</v>
       </c>
-      <c r="T1" s="262"/>
-      <c r="U1" s="263"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="269"/>
       <c r="V1" s="152"/>
-      <c r="W1" s="261" t="s">
+      <c r="W1" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="262"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="274" t="s">
+      <c r="X1" s="268"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="268" t="s">
+      <c r="AA1" s="285"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="264" t="s">
+      <c r="AD1" s="277"/>
+      <c r="AE1" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
+      <c r="AF1" s="273"/>
+      <c r="AG1" s="273"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="273"/>
       <c r="AJ1" s="143"/>
-      <c r="AK1" s="266" t="s">
+      <c r="AK1" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="267"/>
-      <c r="AM1" s="272" t="s">
+      <c r="AL1" s="275"/>
+      <c r="AM1" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="273"/>
-      <c r="AO1" s="272" t="s">
+      <c r="AN1" s="283"/>
+      <c r="AO1" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="273"/>
-      <c r="AQ1" s="259" t="s">
+      <c r="AP1" s="283"/>
+      <c r="AQ1" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="260"/>
-      <c r="AS1" s="260"/>
-      <c r="AT1" s="260"/>
-      <c r="AU1" s="260"/>
-      <c r="AV1" s="260"/>
+      <c r="AR1" s="271"/>
+      <c r="AS1" s="271"/>
+      <c r="AT1" s="271"/>
+      <c r="AU1" s="271"/>
+      <c r="AV1" s="271"/>
       <c r="AW1" s="192"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="271"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
       <c r="O2" s="47" t="s">
         <v>14</v>
       </c>
@@ -4632,7 +4542,7 @@
       </c>
       <c r="K3" s="159">
         <f t="shared" ref="K3:K12" ca="1" si="0">J3-TODAY()</f>
-        <v>-646</v>
+        <v>-657</v>
       </c>
       <c r="L3" s="159" t="s">
         <v>224</v>
@@ -4642,7 +4552,7 @@
       </c>
       <c r="N3" s="159">
         <f t="shared" ref="N3:N12" ca="1" si="1">M3-TODAY()</f>
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="O3" s="159"/>
       <c r="P3" s="160" t="s">
@@ -4651,7 +4561,7 @@
       <c r="Q3" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="159" t="e" vm="1">
+      <c r="R3" s="159" t="e">
         <f t="shared" ref="R3:R12" ca="1" si="2">Q3-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -4664,7 +4574,7 @@
       </c>
       <c r="V3" s="159">
         <f t="shared" ref="V3:V12" ca="1" si="3">U3-TODAY()</f>
-        <v>-359</v>
+        <v>-370</v>
       </c>
       <c r="W3" s="161"/>
       <c r="X3" s="162"/>
@@ -4725,7 +4635,7 @@
       </c>
       <c r="K4" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-298</v>
+        <v>-309</v>
       </c>
       <c r="L4" s="159" t="s">
         <v>189</v>
@@ -4735,7 +4645,7 @@
       </c>
       <c r="N4" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="O4" s="159"/>
       <c r="P4" s="160" t="s">
@@ -4744,7 +4654,7 @@
       <c r="Q4" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="159" t="e" vm="1">
+      <c r="R4" s="159" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -4753,14 +4663,14 @@
       <c r="U4" s="161"/>
       <c r="V4" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W4" s="161"/>
       <c r="X4" s="162"/>
       <c r="Y4" s="161"/>
       <c r="Z4" s="159">
         <f t="shared" ref="Z4:Z12" ca="1" si="4">Y4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA4" s="159"/>
       <c r="AB4" s="163"/>
@@ -4782,7 +4692,7 @@
       <c r="AN4" s="163"/>
       <c r="AO4" s="159">
         <f t="shared" ref="AO4:AO12" ca="1" si="5">AN4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP4" s="163"/>
       <c r="AQ4" s="163"/>
@@ -4824,7 +4734,7 @@
       </c>
       <c r="K5" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-508</v>
+        <v>-519</v>
       </c>
       <c r="L5" s="159" t="s">
         <v>185</v>
@@ -4834,7 +4744,7 @@
       </c>
       <c r="N5" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>2139</v>
+        <v>2128</v>
       </c>
       <c r="O5" s="159"/>
       <c r="P5" s="160" t="s">
@@ -4845,21 +4755,21 @@
       </c>
       <c r="R5" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>-340</v>
+        <v>-351</v>
       </c>
       <c r="S5" s="161"/>
       <c r="T5" s="162"/>
       <c r="U5" s="161"/>
       <c r="V5" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W5" s="161"/>
       <c r="X5" s="162"/>
       <c r="Y5" s="161"/>
       <c r="Z5" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA5" s="159" t="s">
         <v>3</v>
@@ -4883,7 +4793,7 @@
       </c>
       <c r="AO5" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="AP5" s="163"/>
       <c r="AQ5" s="163"/>
@@ -4931,7 +4841,7 @@
       </c>
       <c r="K6" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-912</v>
+        <v>-923</v>
       </c>
       <c r="L6" s="249" t="s">
         <v>193</v>
@@ -4941,7 +4851,7 @@
       </c>
       <c r="N6" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O6" s="159"/>
       <c r="P6" s="160" t="s">
@@ -4952,21 +4862,21 @@
       </c>
       <c r="R6" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>-705</v>
+        <v>-716</v>
       </c>
       <c r="S6" s="161"/>
       <c r="T6" s="162"/>
       <c r="U6" s="161"/>
       <c r="V6" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W6" s="161"/>
       <c r="X6" s="162"/>
       <c r="Y6" s="161"/>
       <c r="Z6" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA6" s="159"/>
       <c r="AB6" s="163"/>
@@ -4984,7 +4894,7 @@
       <c r="AN6" s="163"/>
       <c r="AO6" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP6" s="163"/>
       <c r="AQ6" s="163"/>
@@ -5026,7 +4936,7 @@
       </c>
       <c r="K7" s="222">
         <f ca="1">J7-TODAY()</f>
-        <v>-208</v>
+        <v>-219</v>
       </c>
       <c r="L7" s="249" t="s">
         <v>194</v>
@@ -5036,7 +4946,7 @@
       </c>
       <c r="N7" s="222">
         <f ca="1">M7-TODAY()</f>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="O7" s="222"/>
       <c r="P7" s="160" t="s">
@@ -5047,21 +4957,21 @@
       </c>
       <c r="R7" s="222">
         <f ca="1">Q7-TODAY()</f>
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="S7" s="190"/>
       <c r="T7" s="229"/>
       <c r="U7" s="190"/>
       <c r="V7" s="222">
         <f ca="1">U7-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W7" s="190"/>
       <c r="X7" s="229"/>
       <c r="Y7" s="190"/>
       <c r="Z7" s="222">
         <f ca="1">Y7-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA7" s="222"/>
       <c r="AB7" s="230"/>
@@ -5079,7 +4989,7 @@
       <c r="AN7" s="230"/>
       <c r="AO7" s="222">
         <f ca="1">AN7-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP7" s="230"/>
       <c r="AQ7" s="230"/>
@@ -5123,7 +5033,7 @@
       </c>
       <c r="K8" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="L8" s="249" t="s">
         <v>187</v>
@@ -5133,7 +5043,7 @@
       </c>
       <c r="N8" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>-210</v>
+        <v>-221</v>
       </c>
       <c r="O8" s="159"/>
       <c r="P8" s="160" t="s">
@@ -5144,21 +5054,21 @@
       </c>
       <c r="R8" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>-744</v>
+        <v>-755</v>
       </c>
       <c r="S8" s="167"/>
       <c r="T8" s="197"/>
       <c r="U8" s="167"/>
       <c r="V8" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W8" s="167"/>
       <c r="X8" s="197"/>
       <c r="Y8" s="167"/>
       <c r="Z8" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA8" s="159"/>
       <c r="AB8" s="163"/>
@@ -5178,7 +5088,7 @@
       <c r="AN8" s="163"/>
       <c r="AO8" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP8" s="163"/>
       <c r="AQ8" s="163"/>
@@ -5220,7 +5130,7 @@
       </c>
       <c r="K9" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-388</v>
+        <v>-399</v>
       </c>
       <c r="L9" s="159" t="s">
         <v>181</v>
@@ -5230,7 +5140,7 @@
       </c>
       <c r="N9" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="O9" s="159"/>
       <c r="P9" s="160" t="s">
@@ -5241,14 +5151,14 @@
       </c>
       <c r="R9" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="S9" s="167"/>
       <c r="T9" s="206"/>
       <c r="U9" s="167"/>
       <c r="V9" s="166">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W9" s="167" t="s">
         <v>159</v>
@@ -5261,7 +5171,7 @@
       </c>
       <c r="Z9" s="166">
         <f t="shared" ca="1" si="4"/>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA9" s="159"/>
       <c r="AB9" s="163"/>
@@ -5279,7 +5189,7 @@
       <c r="AN9" s="163"/>
       <c r="AO9" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP9" s="163"/>
       <c r="AQ9" s="163"/>
@@ -5323,7 +5233,7 @@
       </c>
       <c r="K10" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="L10" s="159" t="s">
         <v>304</v>
@@ -5333,7 +5243,7 @@
       </c>
       <c r="N10" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>2772</v>
+        <v>2761</v>
       </c>
       <c r="O10" s="159"/>
       <c r="P10" s="258" t="s">
@@ -5344,7 +5254,7 @@
       </c>
       <c r="R10" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="S10" s="280" t="s">
         <v>291</v>
@@ -5353,14 +5263,14 @@
       <c r="U10" s="161"/>
       <c r="V10" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W10" s="161"/>
       <c r="X10" s="162"/>
       <c r="Y10" s="161"/>
       <c r="Z10" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA10" s="159"/>
       <c r="AB10" s="163"/>
@@ -5378,7 +5288,7 @@
       <c r="AN10" s="163"/>
       <c r="AO10" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP10" s="163"/>
       <c r="AQ10" s="163"/>
@@ -5422,7 +5332,7 @@
       </c>
       <c r="K11" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-377</v>
+        <v>-388</v>
       </c>
       <c r="L11" s="249" t="s">
         <v>305</v>
@@ -5432,7 +5342,7 @@
       </c>
       <c r="N11" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O11" s="159"/>
       <c r="P11" s="160" t="s">
@@ -5443,7 +5353,7 @@
       </c>
       <c r="R11" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="S11" s="280" t="s">
         <v>291</v>
@@ -5452,14 +5362,14 @@
       <c r="U11" s="161"/>
       <c r="V11" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W11" s="161"/>
       <c r="X11" s="162"/>
       <c r="Y11" s="161"/>
       <c r="Z11" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA11" s="159"/>
       <c r="AB11" s="163"/>
@@ -5485,7 +5395,7 @@
       </c>
       <c r="AO11" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="AP11" s="163"/>
       <c r="AQ11" s="163"/>
@@ -5529,7 +5439,7 @@
       </c>
       <c r="K12" s="159">
         <f t="shared" ca="1" si="0"/>
-        <v>-377</v>
+        <v>-388</v>
       </c>
       <c r="L12" s="159" t="s">
         <v>169</v>
@@ -5539,7 +5449,7 @@
       </c>
       <c r="N12" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="O12" s="159"/>
       <c r="P12" s="160" t="s">
@@ -5550,21 +5460,21 @@
       </c>
       <c r="R12" s="159">
         <f t="shared" ca="1" si="2"/>
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="S12" s="161"/>
       <c r="T12" s="162"/>
       <c r="U12" s="161"/>
       <c r="V12" s="159">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W12" s="161"/>
       <c r="X12" s="162"/>
       <c r="Y12" s="161"/>
       <c r="Z12" s="159">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA12" s="159"/>
       <c r="AB12" s="163"/>
@@ -5582,7 +5492,7 @@
       <c r="AN12" s="163"/>
       <c r="AO12" s="159">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP12" s="163"/>
       <c r="AQ12" s="163"/>
@@ -5618,7 +5528,7 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" ref="K13:K16" ca="1" si="6">J13-TODAY()</f>
-        <v>-912</v>
+        <v>-923</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>194</v>
@@ -5628,7 +5538,7 @@
       </c>
       <c r="N13" s="20">
         <f t="shared" ref="N13:N16" ca="1" si="7">M13-TODAY()</f>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="21" t="s">
@@ -5639,21 +5549,21 @@
       </c>
       <c r="R13" s="20">
         <f t="shared" ref="R13:R16" ca="1" si="8">Q13-TODAY()</f>
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="58"/>
       <c r="U13" s="57"/>
       <c r="V13" s="20">
         <f t="shared" ref="V13:V14" ca="1" si="9">U13-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W13" s="57"/>
       <c r="X13" s="58"/>
       <c r="Y13" s="57"/>
       <c r="Z13" s="20">
         <f t="shared" ref="Z13:Z14" ca="1" si="10">Y13-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA13" s="59"/>
       <c r="AB13" s="60"/>
@@ -5671,7 +5581,7 @@
       <c r="AN13" s="66"/>
       <c r="AO13" s="20">
         <f t="shared" ref="AO13:AO14" ca="1" si="11">AN13-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP13" s="66"/>
       <c r="AQ13" s="66"/>
@@ -5697,34 +5607,34 @@
       <c r="J14" s="22"/>
       <c r="K14" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="5"/>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S14" s="57"/>
       <c r="T14" s="58"/>
       <c r="U14" s="57"/>
       <c r="V14" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="W14" s="57"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="57"/>
       <c r="Z14" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AA14" s="59"/>
       <c r="AB14" s="60"/>
@@ -5742,7 +5652,7 @@
       <c r="AN14" s="66"/>
       <c r="AO14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AP14" s="66"/>
       <c r="AQ14" s="66"/>
@@ -5765,20 +5675,20 @@
       <c r="J15" s="17"/>
       <c r="K15" s="117">
         <f t="shared" ca="1" si="6"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L15" s="117"/>
       <c r="M15" s="17"/>
       <c r="N15" s="117">
         <f t="shared" ca="1" si="7"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O15" s="117"/>
       <c r="P15" s="118"/>
       <c r="Q15" s="119"/>
       <c r="R15" s="117">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S15" s="120"/>
       <c r="T15" s="121"/>
@@ -5824,20 +5734,20 @@
       <c r="J16" s="17"/>
       <c r="K16" s="117">
         <f t="shared" ca="1" si="6"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L16" s="117"/>
       <c r="M16" s="17"/>
       <c r="N16" s="117">
         <f t="shared" ca="1" si="7"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O16" s="117"/>
       <c r="P16" s="118"/>
       <c r="Q16" s="119"/>
       <c r="R16" s="117">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S16" s="120"/>
       <c r="T16" s="121"/>
@@ -5935,13 +5845,13 @@
       <c r="J18" s="17"/>
       <c r="K18" s="117">
         <f ca="1">J18-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L18" s="117"/>
       <c r="M18" s="17"/>
       <c r="N18" s="117">
         <f ca="1">M18-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O18" s="117"/>
       <c r="P18" s="118" t="s">
@@ -5950,7 +5860,7 @@
       <c r="Q18" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="R18" s="117" t="e" vm="1">
+      <c r="R18" s="117" t="e">
         <f ca="1">Q18-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -5998,20 +5908,20 @@
       <c r="J19" s="17"/>
       <c r="K19" s="117">
         <f ca="1">J19-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L19" s="117"/>
       <c r="M19" s="17"/>
       <c r="N19" s="117">
         <f ca="1">M19-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O19" s="117"/>
       <c r="P19" s="118"/>
       <c r="Q19" s="119"/>
       <c r="R19" s="117">
         <f ca="1">Q19-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S19" s="120"/>
       <c r="T19" s="121"/>
@@ -6057,20 +5967,20 @@
       <c r="J20" s="17"/>
       <c r="K20" s="117">
         <f ca="1">J20-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L20" s="117"/>
       <c r="M20" s="17"/>
       <c r="N20" s="117">
         <f ca="1">M20-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O20" s="117"/>
       <c r="P20" s="118"/>
       <c r="Q20" s="119"/>
       <c r="R20" s="117">
         <f ca="1">Q20-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S20" s="120"/>
       <c r="T20" s="121"/>
@@ -6122,20 +6032,20 @@
       <c r="J21" s="17"/>
       <c r="K21" s="117">
         <f ca="1">J21-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="L21" s="117"/>
       <c r="M21" s="17"/>
       <c r="N21" s="117">
         <f ca="1">M21-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="O21" s="117"/>
       <c r="P21" s="118"/>
       <c r="Q21" s="119"/>
       <c r="R21" s="117">
         <f ca="1">Q21-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="S21" s="120"/>
       <c r="T21" s="121"/>
@@ -6170,108 +6080,108 @@
     </row>
     <row r="22" spans="1:48" hidden="1"/>
     <row r="24" spans="1:48">
-      <c r="A24" s="324" t="s">
+      <c r="A24" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="B24" s="324"/>
-      <c r="C24" s="324"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="264"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="324">
+      <c r="A25" s="264">
         <v>1</v>
       </c>
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="C25" s="324"/>
+      <c r="C25" s="264"/>
     </row>
     <row r="26" spans="1:48">
-      <c r="A26" s="324">
+      <c r="A26" s="264">
         <v>2</v>
       </c>
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="264" t="s">
         <v>472</v>
       </c>
-      <c r="C26" s="324"/>
+      <c r="C26" s="264"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="B27" s="324" t="s">
+      <c r="B27" s="264" t="s">
         <v>474</v>
       </c>
-      <c r="C27" s="324"/>
+      <c r="C27" s="264"/>
     </row>
     <row r="28" spans="1:48">
-      <c r="A28" s="324"/>
-      <c r="B28" s="324" t="s">
+      <c r="A28" s="264"/>
+      <c r="B28" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="324"/>
+      <c r="C28" s="264"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="A29" s="324"/>
-      <c r="B29" s="324" t="s">
+      <c r="A29" s="264"/>
+      <c r="B29" s="264" t="s">
         <v>476</v>
       </c>
-      <c r="C29" s="324"/>
+      <c r="C29" s="264"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="A30" s="324"/>
-      <c r="B30" s="324" t="s">
+      <c r="A30" s="264"/>
+      <c r="B30" s="264" t="s">
         <v>477</v>
       </c>
-      <c r="C30" s="324"/>
+      <c r="C30" s="264"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="A31" s="324"/>
-      <c r="B31" s="324" t="s">
+      <c r="A31" s="264"/>
+      <c r="B31" s="264" t="s">
         <v>478</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="264"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="A32" s="324">
+      <c r="A32" s="264">
         <v>3</v>
       </c>
-      <c r="B32" s="324" t="s">
+      <c r="B32" s="264" t="s">
         <v>479</v>
       </c>
-      <c r="C32" s="324"/>
+      <c r="C32" s="264"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="324" t="s">
+      <c r="A33" s="264" t="s">
         <v>480</v>
       </c>
-      <c r="B33" s="324" t="s">
+      <c r="B33" s="264" t="s">
         <v>481</v>
       </c>
-      <c r="C33" s="324"/>
+      <c r="C33" s="264"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="324"/>
-      <c r="B34" s="324" t="s">
+      <c r="A34" s="264"/>
+      <c r="B34" s="264" t="s">
         <v>482</v>
       </c>
-      <c r="C34" s="324"/>
+      <c r="C34" s="264"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="324"/>
-      <c r="B35" s="324" t="s">
+      <c r="A35" s="264"/>
+      <c r="B35" s="264" t="s">
         <v>483</v>
       </c>
-      <c r="C35" s="324"/>
+      <c r="C35" s="264"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="324"/>
-      <c r="B36" s="324" t="s">
+      <c r="A36" s="264"/>
+      <c r="B36" s="264" t="s">
         <v>484</v>
       </c>
-      <c r="C36" s="324"/>
+      <c r="C36" s="264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AW12" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AW12">
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="19" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
@@ -6303,13 +6213,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="L1:L2"/>
@@ -6368,18 +6278,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RUlDQ200NzFMa2tZVUhKN0lWUDF0RXFuSlNnZVlwZ3ZHOEZhRFIySHZkSXVLN0MyZWpsaVBFS2Yrb0t2dkpFSkkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0=" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I21" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=emVLK3BnYi9OWUw0cU9xbTg1VzJjNjIxeDF4ZDdOOHd1Slpnekp2MmZqc3VLN0MyZWpsaVBFS2Yrb0t2dkpFSkkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0=" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I7" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I4" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I5" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I6" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I13" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I8" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I9" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNcHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I10" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I11" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I12" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RUlDQ200NzFMa2tZVUhKN0lWUDF0RXFuSlNnZVlwZ3ZHOEZhRFIySHZkSXVLN0MyZWpsaVBFS2Yrb0t2dkpFSkkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0="/>
+    <hyperlink ref="I21" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=emVLK3BnYi9OWUw0cU9xbTg1VzJjNjIxeDF4ZDdOOHd1Slpnekp2MmZqc3VLN0MyZWpsaVBFS2Yrb0t2dkpFSkkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0="/>
+    <hyperlink ref="I7" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I4" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I5" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I6" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I13" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I8" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I9" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNcHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I10" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I11" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="I12" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.25" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6391,7 +6301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT83"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6401,162 +6311,162 @@
       <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="16" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="16" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" customWidth="1"/>
+    <col min="21" max="22" width="7.6640625" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" customWidth="1"/>
-    <col min="28" max="28" width="20.5703125" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" customWidth="1"/>
+    <col min="30" max="30" width="18.88671875" customWidth="1"/>
     <col min="31" max="31" width="25" customWidth="1"/>
     <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" customWidth="1"/>
     <col min="34" max="34" width="25" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" customWidth="1"/>
+    <col min="35" max="35" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="7.88671875" customWidth="1"/>
     <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" customWidth="1"/>
     <col min="39" max="39" width="25" customWidth="1"/>
-    <col min="40" max="40" width="13.85546875" customWidth="1"/>
-    <col min="41" max="41" width="24.42578125" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="28.7109375" customWidth="1"/>
-    <col min="45" max="45" width="13.140625" style="2" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" customWidth="1"/>
+    <col min="41" max="41" width="24.44140625" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" customWidth="1"/>
+    <col min="44" max="44" width="28.6640625" customWidth="1"/>
+    <col min="45" max="45" width="13.109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="276" t="s">
+      <c r="C1" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="270" t="s">
+      <c r="E1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="270" t="s">
+      <c r="F1" s="265" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="270" t="s">
+      <c r="H1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="270" t="s">
+      <c r="I1" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="270" t="s">
+      <c r="J1" s="265" t="s">
         <v>29</v>
       </c>
       <c r="K1" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="270" t="s">
+      <c r="L1" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="270" t="s">
+      <c r="M1" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="283" t="s">
+      <c r="N1" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="284"/>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="261" t="s">
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="291"/>
+      <c r="R1" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="262"/>
-      <c r="T1" s="263"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="269"/>
       <c r="U1" s="46"/>
-      <c r="V1" s="274" t="s">
+      <c r="V1" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="268" t="s">
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="264" t="s">
+      <c r="Z1" s="277"/>
+      <c r="AA1" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="273"/>
+      <c r="AD1" s="273"/>
+      <c r="AE1" s="273"/>
       <c r="AF1" s="143"/>
-      <c r="AG1" s="266" t="s">
+      <c r="AG1" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="272" t="s">
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="272" t="s">
+      <c r="AJ1" s="283"/>
+      <c r="AK1" s="283"/>
+      <c r="AL1" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="273"/>
-      <c r="AN1" s="259" t="s">
+      <c r="AM1" s="283"/>
+      <c r="AN1" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="260"/>
-      <c r="AP1" s="260"/>
-      <c r="AQ1" s="260"/>
-      <c r="AR1" s="260"/>
-      <c r="AS1" s="282" t="s">
+      <c r="AO1" s="271"/>
+      <c r="AP1" s="271"/>
+      <c r="AQ1" s="271"/>
+      <c r="AR1" s="271"/>
+      <c r="AS1" s="288" t="s">
         <v>219</v>
       </c>
-      <c r="AT1" s="282"/>
+      <c r="AT1" s="288"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="271"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
       <c r="K2" s="141"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
       <c r="N2" s="47" t="s">
         <v>14</v>
       </c>
@@ -6685,7 +6595,7 @@
       </c>
       <c r="J3" s="20">
         <f ca="1">I3-TODAY()</f>
-        <v>-204</v>
+        <v>-215</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>163</v>
@@ -6695,7 +6605,7 @@
       </c>
       <c r="M3" s="20">
         <f ca="1">L3-TODAY()</f>
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="21" t="s">
@@ -6704,7 +6614,7 @@
       <c r="P3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="20" t="e" vm="1">
+      <c r="Q3" s="20" t="e">
         <f ca="1">P3-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -6713,7 +6623,7 @@
       <c r="T3" s="57"/>
       <c r="U3" s="20">
         <f ca="1">T3-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V3" s="59"/>
       <c r="W3" s="60"/>
@@ -6731,7 +6641,7 @@
       <c r="AI3" s="66"/>
       <c r="AJ3" s="20">
         <f ca="1">AI3-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
@@ -6774,7 +6684,7 @@
       </c>
       <c r="J4" s="20">
         <f t="shared" ref="J4:J77" ca="1" si="0">I4-TODAY()</f>
-        <v>-298</v>
+        <v>-309</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>189</v>
@@ -6784,7 +6694,7 @@
       </c>
       <c r="M4" s="20">
         <f t="shared" ref="M4:M11" ca="1" si="1">L4-TODAY()</f>
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="21" t="s">
@@ -6793,7 +6703,7 @@
       <c r="P4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="20" t="e" vm="1">
+      <c r="Q4" s="20" t="e">
         <f t="shared" ref="Q4:Q77" ca="1" si="2">P4-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -6802,7 +6712,7 @@
       <c r="T4" s="57"/>
       <c r="U4" s="20">
         <f t="shared" ref="U4:U77" ca="1" si="3">T4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V4" s="59"/>
       <c r="W4" s="60"/>
@@ -6824,7 +6734,7 @@
       <c r="AI4" s="66"/>
       <c r="AJ4" s="20">
         <f t="shared" ref="AJ4:AJ77" ca="1" si="4">AI4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK4" s="66"/>
       <c r="AL4" s="66"/>
@@ -6869,7 +6779,7 @@
       </c>
       <c r="J5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-643</v>
+        <v>-654</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>192</v>
@@ -6879,7 +6789,7 @@
       </c>
       <c r="M5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="21" t="s">
@@ -6890,14 +6800,14 @@
       </c>
       <c r="Q5" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-378</v>
+        <v>-389</v>
       </c>
       <c r="R5" s="57"/>
       <c r="S5" s="58"/>
       <c r="T5" s="57"/>
       <c r="U5" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V5" s="59"/>
       <c r="W5" s="60"/>
@@ -6915,7 +6825,7 @@
       <c r="AI5" s="66"/>
       <c r="AJ5" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK5" s="66"/>
       <c r="AL5" s="66"/>
@@ -6958,7 +6868,7 @@
       </c>
       <c r="J6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-508</v>
+        <v>-519</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>185</v>
@@ -6968,7 +6878,7 @@
       </c>
       <c r="M6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2139</v>
+        <v>2128</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="21" t="s">
@@ -6979,14 +6889,14 @@
       </c>
       <c r="Q6" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-340</v>
+        <v>-351</v>
       </c>
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
       <c r="T6" s="57"/>
       <c r="U6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V6" s="59" t="s">
         <v>3</v>
@@ -7006,7 +6916,7 @@
       <c r="AI6" s="66"/>
       <c r="AJ6" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK6" s="66"/>
       <c r="AL6" s="66"/>
@@ -7053,7 +6963,7 @@
       </c>
       <c r="J7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>187</v>
@@ -7063,7 +6973,7 @@
       </c>
       <c r="M7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>-210</v>
+        <v>-221</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="21" t="s">
@@ -7074,14 +6984,14 @@
       </c>
       <c r="Q7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-744</v>
+        <v>-755</v>
       </c>
       <c r="R7" s="73"/>
       <c r="S7" s="74"/>
       <c r="T7" s="73"/>
       <c r="U7" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -7099,7 +7009,7 @@
       <c r="AI7" s="66"/>
       <c r="AJ7" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK7" s="66"/>
       <c r="AL7" s="66"/>
@@ -7142,7 +7052,7 @@
       </c>
       <c r="J8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-388</v>
+        <v>-399</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>181</v>
@@ -7152,7 +7062,7 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="21" t="s">
@@ -7163,7 +7073,7 @@
       </c>
       <c r="Q8" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="R8" s="73" t="s">
         <v>113</v>
@@ -7176,7 +7086,7 @@
       </c>
       <c r="U8" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>-769</v>
+        <v>-780</v>
       </c>
       <c r="V8" s="59" t="s">
         <v>159</v>
@@ -7200,7 +7110,7 @@
       <c r="AI8" s="66"/>
       <c r="AJ8" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK8" s="66"/>
       <c r="AL8" s="66"/>
@@ -7243,7 +7153,7 @@
       </c>
       <c r="J9" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-794</v>
+        <v>-805</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>177</v>
@@ -7253,7 +7163,7 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>-763</v>
+        <v>-774</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="21" t="s">
@@ -7264,14 +7174,14 @@
       </c>
       <c r="Q9" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="57"/>
       <c r="U9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -7289,7 +7199,7 @@
       <c r="AI9" s="66"/>
       <c r="AJ9" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK9" s="66"/>
       <c r="AL9" s="66"/>
@@ -7332,7 +7242,7 @@
       </c>
       <c r="J10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-732</v>
+        <v>-743</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>173</v>
@@ -7342,7 +7252,7 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>-701</v>
+        <v>-712</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="76" t="s">
@@ -7353,14 +7263,14 @@
       </c>
       <c r="Q10" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="57"/>
       <c r="U10" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -7378,7 +7288,7 @@
       <c r="AI10" s="66"/>
       <c r="AJ10" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK10" s="66"/>
       <c r="AL10" s="66"/>
@@ -7421,13 +7331,13 @@
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-377</v>
+        <v>-388</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="5"/>
       <c r="M11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="76" t="s">
@@ -7438,14 +7348,14 @@
       </c>
       <c r="Q11" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="R11" s="57"/>
       <c r="S11" s="58"/>
       <c r="T11" s="57"/>
       <c r="U11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -7471,7 +7381,7 @@
       </c>
       <c r="AJ11" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="AK11" s="66"/>
       <c r="AL11" s="66"/>
@@ -7514,7 +7424,7 @@
       </c>
       <c r="J12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-377</v>
+        <v>-388</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>169</v>
@@ -7524,7 +7434,7 @@
       </c>
       <c r="M12" s="20">
         <f ca="1">L12-TODAY()</f>
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="21" t="s">
@@ -7535,14 +7445,14 @@
       </c>
       <c r="Q12" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="R12" s="57"/>
       <c r="S12" s="58"/>
       <c r="T12" s="57"/>
       <c r="U12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -7560,7 +7470,7 @@
       <c r="AI12" s="66"/>
       <c r="AJ12" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK12" s="66"/>
       <c r="AL12" s="66"/>
@@ -7603,7 +7513,7 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-377</v>
+        <v>-388</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>180</v>
@@ -7613,7 +7523,7 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" ref="M13:M58" ca="1" si="5">L13-TODAY()</f>
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="21" t="s">
@@ -7622,7 +7532,7 @@
       <c r="P13" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="20" t="e" vm="1">
+      <c r="Q13" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -7631,7 +7541,7 @@
       <c r="T13" s="57"/>
       <c r="U13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -7649,7 +7559,7 @@
       <c r="AI13" s="66"/>
       <c r="AJ13" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK13" s="66"/>
       <c r="AL13" s="66"/>
@@ -7696,7 +7606,7 @@
       </c>
       <c r="J14" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="K14" s="78" t="s">
         <v>186</v>
@@ -7706,7 +7616,7 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2190</v>
+        <v>2179</v>
       </c>
       <c r="N14" s="78"/>
       <c r="O14" s="79" t="s">
@@ -7715,7 +7625,7 @@
       <c r="P14" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="20" t="e" vm="1">
+      <c r="Q14" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -7730,7 +7640,7 @@
       </c>
       <c r="U14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-513</v>
+        <v>-524</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -7748,7 +7658,7 @@
       <c r="AI14" s="66"/>
       <c r="AJ14" s="78">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK14" s="66"/>
       <c r="AL14" s="66"/>
@@ -7791,7 +7701,7 @@
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>172</v>
@@ -7801,7 +7711,7 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="21" t="s">
@@ -7812,14 +7722,14 @@
       </c>
       <c r="Q15" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="58"/>
       <c r="T15" s="57"/>
       <c r="U15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -7837,7 +7747,7 @@
       <c r="AI15" s="66"/>
       <c r="AJ15" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK15" s="66" t="s">
         <v>144</v>
@@ -7884,7 +7794,7 @@
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-466</v>
+        <v>-477</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>170</v>
@@ -7894,7 +7804,7 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-436</v>
+        <v>-447</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="21" t="s">
@@ -7905,14 +7815,14 @@
       </c>
       <c r="Q16" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="58"/>
       <c r="T16" s="57"/>
       <c r="U16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
@@ -7934,7 +7844,7 @@
       </c>
       <c r="AJ16" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="AK16" s="66"/>
       <c r="AL16" s="66"/>
@@ -7977,7 +7887,7 @@
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-291</v>
+        <v>-302</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>191</v>
@@ -7987,7 +7897,7 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2237</v>
+        <v>2226</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21" t="s">
@@ -7996,7 +7906,7 @@
       <c r="P17" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q17" s="20" t="e" vm="1">
+      <c r="Q17" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8005,7 +7915,7 @@
       <c r="T17" s="57"/>
       <c r="U17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="82"/>
@@ -8023,7 +7933,7 @@
       <c r="AI17" s="66"/>
       <c r="AJ17" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK17" s="66"/>
       <c r="AL17" s="66"/>
@@ -8068,7 +7978,7 @@
       </c>
       <c r="J18" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-815</v>
+        <v>-826</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>190</v>
@@ -8078,7 +7988,7 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-688</v>
+        <v>-699</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
@@ -8089,14 +7999,14 @@
       </c>
       <c r="Q18" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-438</v>
+        <v>-449</v>
       </c>
       <c r="R18" s="57"/>
       <c r="S18" s="58"/>
       <c r="T18" s="57"/>
       <c r="U18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
@@ -8114,7 +8024,7 @@
       <c r="AI18" s="66"/>
       <c r="AJ18" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK18" s="66"/>
       <c r="AL18" s="66"/>
@@ -8157,7 +8067,7 @@
       </c>
       <c r="J19" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-276</v>
+        <v>-287</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>176</v>
@@ -8167,7 +8077,7 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="21" t="s">
@@ -8178,14 +8088,14 @@
       </c>
       <c r="Q19" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="R19" s="57"/>
       <c r="S19" s="58"/>
       <c r="T19" s="57"/>
       <c r="U19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V19" s="59"/>
       <c r="W19" s="60"/>
@@ -8203,7 +8113,7 @@
       <c r="AI19" s="66"/>
       <c r="AJ19" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK19" s="66"/>
       <c r="AL19" s="66"/>
@@ -8246,7 +8156,7 @@
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-291</v>
+        <v>-302</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>184</v>
@@ -8256,7 +8166,7 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="21" t="s">
@@ -8265,7 +8175,7 @@
       <c r="P20" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="20" t="e" vm="1">
+      <c r="Q20" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8274,7 +8184,7 @@
       <c r="T20" s="57"/>
       <c r="U20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
@@ -8292,7 +8202,7 @@
       <c r="AI20" s="66"/>
       <c r="AJ20" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK20" s="66"/>
       <c r="AL20" s="66"/>
@@ -8335,7 +8245,7 @@
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-291</v>
+        <v>-302</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>171</v>
@@ -8345,7 +8255,7 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-243</v>
+        <v>-254</v>
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="21" t="s">
@@ -8356,14 +8266,14 @@
       </c>
       <c r="Q21" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-442</v>
+        <v>-453</v>
       </c>
       <c r="R21" s="57"/>
       <c r="S21" s="58"/>
       <c r="T21" s="57"/>
       <c r="U21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
@@ -8385,7 +8295,7 @@
       <c r="AI21" s="66"/>
       <c r="AJ21" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK21" s="66"/>
       <c r="AL21" s="66"/>
@@ -8429,7 +8339,7 @@
       </c>
       <c r="J22" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-276</v>
+        <v>-287</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>178</v>
@@ -8439,7 +8349,7 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="N22" s="20"/>
       <c r="O22" s="21" t="s">
@@ -8450,14 +8360,14 @@
       </c>
       <c r="Q22" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="R22" s="57"/>
       <c r="S22" s="58"/>
       <c r="T22" s="57"/>
       <c r="U22" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
@@ -8475,7 +8385,7 @@
       <c r="AI22" s="66"/>
       <c r="AJ22" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK22" s="66"/>
       <c r="AL22" s="66"/>
@@ -8518,7 +8428,7 @@
       </c>
       <c r="J23" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>-263</v>
+        <v>-274</v>
       </c>
       <c r="K23" s="78" t="s">
         <v>183</v>
@@ -8528,7 +8438,7 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="N23" s="78"/>
       <c r="O23" s="79" t="s">
@@ -8537,7 +8447,7 @@
       <c r="P23" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" s="20" t="e" vm="1">
+      <c r="Q23" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8546,7 +8456,7 @@
       <c r="T23" s="86"/>
       <c r="U23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V23" s="59" t="s">
         <v>3</v>
@@ -8566,7 +8476,7 @@
       <c r="AI23" s="90"/>
       <c r="AJ23" s="78">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK23" s="90"/>
       <c r="AL23" s="90"/>
@@ -8607,13 +8517,13 @@
       </c>
       <c r="J24" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-328</v>
+        <v>-339</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="5"/>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="21" t="s">
@@ -8622,7 +8532,7 @@
       <c r="P24" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="20" t="e" vm="1">
+      <c r="Q24" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8631,7 +8541,7 @@
       <c r="T24" s="57"/>
       <c r="U24" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V24" s="59"/>
       <c r="W24" s="60"/>
@@ -8649,7 +8559,7 @@
       <c r="AI24" s="66"/>
       <c r="AJ24" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK24" s="66"/>
       <c r="AL24" s="66"/>
@@ -8690,13 +8600,13 @@
       </c>
       <c r="J25" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-372</v>
+        <v>-383</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="5"/>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="21" t="s">
@@ -8705,7 +8615,7 @@
       <c r="P25" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="20" t="e" vm="1">
+      <c r="Q25" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8714,7 +8624,7 @@
       <c r="T25" s="57"/>
       <c r="U25" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
@@ -8732,7 +8642,7 @@
       <c r="AI25" s="66"/>
       <c r="AJ25" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK25" s="66"/>
       <c r="AL25" s="66"/>
@@ -8771,7 +8681,7 @@
       </c>
       <c r="J26" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-252</v>
+        <v>-263</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>165</v>
@@ -8781,7 +8691,7 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="N26" s="41"/>
       <c r="O26" s="42" t="s">
@@ -8790,7 +8700,7 @@
       <c r="P26" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Q26" s="20" t="e" vm="1">
+      <c r="Q26" s="20" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -8799,7 +8709,7 @@
       <c r="T26" s="61"/>
       <c r="U26" s="59">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
@@ -8817,7 +8727,7 @@
       <c r="AI26" s="94"/>
       <c r="AJ26" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK26" s="94"/>
       <c r="AL26" s="94"/>
@@ -8860,7 +8770,7 @@
       </c>
       <c r="J27" s="20">
         <f t="shared" ref="J27:J32" ca="1" si="6">I27-TODAY()</f>
-        <v>-228</v>
+        <v>-239</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>175</v>
@@ -8870,7 +8780,7 @@
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="42" t="s">
@@ -8881,14 +8791,14 @@
       </c>
       <c r="Q27" s="20">
         <f t="shared" ref="Q27:Q32" ca="1" si="7">P27-TODAY()</f>
-        <v>-854</v>
+        <v>-865</v>
       </c>
       <c r="R27" s="61"/>
       <c r="S27" s="92"/>
       <c r="T27" s="61"/>
       <c r="U27" s="59">
         <f t="shared" ref="U27:U32" ca="1" si="8">T27-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V27" s="59"/>
       <c r="W27" s="60"/>
@@ -8906,7 +8816,7 @@
       <c r="AI27" s="94"/>
       <c r="AJ27" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK27" s="94"/>
       <c r="AL27" s="94"/>
@@ -8949,7 +8859,7 @@
       </c>
       <c r="J28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>-317</v>
+        <v>-328</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>167</v>
@@ -8959,7 +8869,7 @@
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-287</v>
+        <v>-298</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="29" t="s">
@@ -8968,7 +8878,7 @@
       <c r="P28" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="18" t="e" vm="1">
+      <c r="Q28" s="18" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -8981,7 +8891,7 @@
       </c>
       <c r="U28" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>-781</v>
+        <v>-792</v>
       </c>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
@@ -8999,7 +8909,7 @@
       <c r="AI28" s="94"/>
       <c r="AJ28" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK28" s="94"/>
       <c r="AL28" s="94"/>
@@ -9042,7 +8952,7 @@
       </c>
       <c r="J29" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>-228</v>
+        <v>-239</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>166</v>
@@ -9052,7 +8962,7 @@
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="N29" s="41"/>
       <c r="O29" s="42" t="s">
@@ -9061,7 +8971,7 @@
       <c r="P29" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Q29" s="20" t="e" vm="1">
+      <c r="Q29" s="20" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -9070,7 +8980,7 @@
       <c r="T29" s="61"/>
       <c r="U29" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V29" s="59"/>
       <c r="W29" s="60"/>
@@ -9088,7 +8998,7 @@
       <c r="AI29" s="94"/>
       <c r="AJ29" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK29" s="94"/>
       <c r="AL29" s="94"/>
@@ -9131,7 +9041,7 @@
       </c>
       <c r="J30" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>-562</v>
+        <v>-573</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>182</v>
@@ -9141,7 +9051,7 @@
       </c>
       <c r="M30" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>2211</v>
+        <v>2200</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="29" t="s">
@@ -9152,14 +9062,14 @@
       </c>
       <c r="Q30" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>-205</v>
+        <v>-216</v>
       </c>
       <c r="R30" s="44"/>
       <c r="S30" s="138"/>
       <c r="T30" s="44"/>
       <c r="U30" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="94"/>
@@ -9177,7 +9087,7 @@
       <c r="AI30" s="94"/>
       <c r="AJ30" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK30" s="94"/>
       <c r="AL30" s="94"/>
@@ -9222,7 +9132,7 @@
       </c>
       <c r="J31" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>-228</v>
+        <v>-239</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>188</v>
@@ -9232,7 +9142,7 @@
       </c>
       <c r="M31" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N31" s="18"/>
       <c r="O31" s="29" t="s">
@@ -9241,7 +9151,7 @@
       <c r="P31" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="Q31" s="20" t="e" vm="1">
+      <c r="Q31" s="20" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -9250,7 +9160,7 @@
       <c r="T31" s="61"/>
       <c r="U31" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V31" s="59"/>
       <c r="W31" s="60"/>
@@ -9270,7 +9180,7 @@
       </c>
       <c r="AJ31" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="AK31" s="94"/>
       <c r="AL31" s="94"/>
@@ -9313,7 +9223,7 @@
       </c>
       <c r="J32" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>-193</v>
+        <v>-204</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>174</v>
@@ -9323,7 +9233,7 @@
       </c>
       <c r="M32" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="42" t="s">
@@ -9332,7 +9242,7 @@
       <c r="P32" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Q32" s="20" t="e" vm="1">
+      <c r="Q32" s="20" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -9341,7 +9251,7 @@
       <c r="T32" s="61"/>
       <c r="U32" s="59">
         <f t="shared" ca="1" si="8"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V32" s="59"/>
       <c r="W32" s="60"/>
@@ -9359,7 +9269,7 @@
       <c r="AI32" s="94"/>
       <c r="AJ32" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK32" s="94"/>
       <c r="AL32" s="94"/>
@@ -9402,7 +9312,7 @@
       </c>
       <c r="J33" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-200</v>
+        <v>-211</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>231</v>
@@ -9412,7 +9322,7 @@
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="42" t="s">
@@ -9421,7 +9331,7 @@
       <c r="P33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Q33" s="20" t="e" vm="1">
+      <c r="Q33" s="20" t="e">
         <f ca="1">P33-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -9430,7 +9340,7 @@
       <c r="T33" s="57"/>
       <c r="U33" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V33" s="59"/>
       <c r="W33" s="60"/>
@@ -9448,7 +9358,7 @@
       <c r="AI33" s="66"/>
       <c r="AJ33" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK33" s="66"/>
       <c r="AL33" s="66"/>
@@ -9491,7 +9401,7 @@
       </c>
       <c r="J34" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-193</v>
+        <v>-204</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>232</v>
@@ -9501,7 +9411,7 @@
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="42" t="s">
@@ -9510,7 +9420,7 @@
       <c r="P34" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Q34" s="20" t="e" vm="1">
+      <c r="Q34" s="20" t="e">
         <f ca="1">P34-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -9525,7 +9435,7 @@
       </c>
       <c r="U34" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="V34" s="59"/>
       <c r="W34" s="60"/>
@@ -9543,7 +9453,7 @@
       <c r="AI34" s="66"/>
       <c r="AJ34" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK34" s="66"/>
       <c r="AL34" s="66"/>
@@ -9586,7 +9496,7 @@
       </c>
       <c r="J35" s="20">
         <f ca="1">I35-TODAY()</f>
-        <v>-166</v>
+        <v>-177</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>168</v>
@@ -9596,7 +9506,7 @@
       </c>
       <c r="M35" s="20">
         <f ca="1">L35-TODAY()</f>
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="21" t="s">
@@ -9607,7 +9517,7 @@
       </c>
       <c r="Q35" s="20">
         <f ca="1">P35-TODAY()</f>
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="R35" s="57"/>
       <c r="S35" s="58"/>
@@ -9631,7 +9541,7 @@
       </c>
       <c r="AJ35" s="20">
         <f ca="1">AI35-TODAY()</f>
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="AK35" s="66"/>
       <c r="AL35" s="66" t="s">
@@ -9760,27 +9670,27 @@
       <c r="I38" s="22"/>
       <c r="J38" s="20">
         <f ca="1">I38-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="5"/>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="21"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="20">
         <f ca="1">P38-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R38" s="57"/>
       <c r="S38" s="58"/>
       <c r="T38" s="57"/>
       <c r="U38" s="20">
         <f ca="1">T38-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V38" s="59"/>
       <c r="W38" s="60"/>
@@ -9798,7 +9708,7 @@
       <c r="AI38" s="66"/>
       <c r="AJ38" s="20">
         <f ca="1">AI38-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK38" s="66"/>
       <c r="AL38" s="66"/>
@@ -9825,27 +9735,27 @@
       <c r="I39" s="22"/>
       <c r="J39" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="5"/>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="21"/>
       <c r="P39" s="25"/>
       <c r="Q39" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R39" s="57"/>
       <c r="S39" s="58"/>
       <c r="T39" s="57"/>
       <c r="U39" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V39" s="59"/>
       <c r="W39" s="60"/>
@@ -9863,7 +9773,7 @@
       <c r="AI39" s="66"/>
       <c r="AJ39" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK39" s="66"/>
       <c r="AL39" s="66"/>
@@ -9894,7 +9804,7 @@
       </c>
       <c r="J40" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-755</v>
+        <v>-766</v>
       </c>
       <c r="K40" s="20" t="s">
         <v>179</v>
@@ -9904,7 +9814,7 @@
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-727</v>
+        <v>-738</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="21" t="s">
@@ -9915,14 +9825,14 @@
       </c>
       <c r="Q40" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-337</v>
+        <v>-348</v>
       </c>
       <c r="R40" s="57"/>
       <c r="S40" s="58"/>
       <c r="T40" s="57"/>
       <c r="U40" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V40" s="59"/>
       <c r="W40" s="60"/>
@@ -9940,7 +9850,7 @@
       <c r="AI40" s="66"/>
       <c r="AJ40" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK40" s="66"/>
       <c r="AL40" s="66"/>
@@ -10017,13 +9927,13 @@
       <c r="I42" s="22"/>
       <c r="J42" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="5"/>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="21"/>
@@ -10049,7 +9959,7 @@
       <c r="AI42" s="66"/>
       <c r="AJ42" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK42" s="66"/>
       <c r="AL42" s="66"/>
@@ -10076,13 +9986,13 @@
       <c r="I43" s="22"/>
       <c r="J43" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="5"/>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="21"/>
@@ -10108,7 +10018,7 @@
       <c r="AI43" s="66"/>
       <c r="AJ43" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK43" s="66"/>
       <c r="AL43" s="66"/>
@@ -10135,13 +10045,13 @@
       <c r="I44" s="22"/>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="5"/>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N44" s="20"/>
       <c r="O44" s="21"/>
@@ -10167,7 +10077,7 @@
       <c r="AI44" s="66"/>
       <c r="AJ44" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK44" s="66"/>
       <c r="AL44" s="66"/>
@@ -10194,13 +10104,13 @@
       <c r="I45" s="22"/>
       <c r="J45" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="5"/>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N45" s="20"/>
       <c r="O45" s="21"/>
@@ -10226,7 +10136,7 @@
       <c r="AI45" s="66"/>
       <c r="AJ45" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK45" s="66"/>
       <c r="AL45" s="66"/>
@@ -10253,13 +10163,13 @@
       <c r="I46" s="22"/>
       <c r="J46" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="5"/>
       <c r="M46" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N46" s="20"/>
       <c r="O46" s="21"/>
@@ -10285,7 +10195,7 @@
       <c r="AI46" s="66"/>
       <c r="AJ46" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK46" s="66"/>
       <c r="AL46" s="66"/>
@@ -10312,13 +10222,13 @@
       <c r="I47" s="22"/>
       <c r="J47" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="5"/>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N47" s="20"/>
       <c r="O47" s="21"/>
@@ -10344,7 +10254,7 @@
       <c r="AI47" s="66"/>
       <c r="AJ47" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK47" s="66"/>
       <c r="AL47" s="66"/>
@@ -10371,13 +10281,13 @@
       <c r="I48" s="22"/>
       <c r="J48" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="5"/>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N48" s="20"/>
       <c r="O48" s="21"/>
@@ -10403,7 +10313,7 @@
       <c r="AI48" s="66"/>
       <c r="AJ48" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK48" s="66"/>
       <c r="AL48" s="66"/>
@@ -10430,13 +10340,13 @@
       <c r="I49" s="22"/>
       <c r="J49" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="19"/>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N49" s="20"/>
       <c r="O49" s="21"/>
@@ -10462,7 +10372,7 @@
       <c r="AI49" s="66"/>
       <c r="AJ49" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK49" s="66"/>
       <c r="AL49" s="66"/>
@@ -10489,13 +10399,13 @@
       <c r="I50" s="22"/>
       <c r="J50" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N50" s="20"/>
       <c r="O50" s="21"/>
@@ -10521,7 +10431,7 @@
       <c r="AI50" s="66"/>
       <c r="AJ50" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK50" s="66"/>
       <c r="AL50" s="66"/>
@@ -10548,13 +10458,13 @@
       <c r="I51" s="22"/>
       <c r="J51" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N51" s="20"/>
       <c r="O51" s="21"/>
@@ -10580,7 +10490,7 @@
       <c r="AI51" s="66"/>
       <c r="AJ51" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK51" s="66"/>
       <c r="AL51" s="66"/>
@@ -10607,13 +10517,13 @@
       <c r="I52" s="22"/>
       <c r="J52" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="24"/>
       <c r="M52" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="21"/>
@@ -10639,7 +10549,7 @@
       <c r="AI52" s="66"/>
       <c r="AJ52" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK52" s="66"/>
       <c r="AL52" s="66"/>
@@ -10666,7 +10576,7 @@
       <c r="I53" s="22"/>
       <c r="J53" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="22">
@@ -10674,7 +10584,7 @@
       </c>
       <c r="M53" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="N53" s="20"/>
       <c r="O53" s="21"/>
@@ -10700,7 +10610,7 @@
       <c r="AI53" s="66"/>
       <c r="AJ53" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK53" s="66"/>
       <c r="AL53" s="66"/>
@@ -10727,13 +10637,13 @@
       <c r="I54" s="22"/>
       <c r="J54" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N54" s="20"/>
       <c r="O54" s="21"/>
@@ -10759,7 +10669,7 @@
       <c r="AI54" s="66"/>
       <c r="AJ54" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK54" s="66"/>
       <c r="AL54" s="66"/>
@@ -10786,13 +10696,13 @@
       <c r="I55" s="22"/>
       <c r="J55" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N55" s="20"/>
       <c r="O55" s="21"/>
@@ -10818,7 +10728,7 @@
       <c r="AI55" s="66"/>
       <c r="AJ55" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK55" s="66"/>
       <c r="AL55" s="66"/>
@@ -10845,13 +10755,13 @@
       <c r="I56" s="22"/>
       <c r="J56" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="21"/>
@@ -10877,7 +10787,7 @@
       <c r="AI56" s="66"/>
       <c r="AJ56" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK56" s="66"/>
       <c r="AL56" s="66"/>
@@ -10904,7 +10814,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="22">
@@ -10912,7 +10822,7 @@
       </c>
       <c r="M57" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="21"/>
@@ -10938,7 +10848,7 @@
       <c r="AI57" s="66"/>
       <c r="AJ57" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK57" s="66"/>
       <c r="AL57" s="66"/>
@@ -10965,27 +10875,27 @@
       <c r="I58" s="22"/>
       <c r="J58" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="21"/>
       <c r="P58" s="25"/>
       <c r="Q58" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R58" s="57"/>
       <c r="S58" s="58"/>
       <c r="T58" s="57"/>
       <c r="U58" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V58" s="59"/>
       <c r="W58" s="60"/>
@@ -11003,7 +10913,7 @@
       <c r="AI58" s="66"/>
       <c r="AJ58" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK58" s="66"/>
       <c r="AL58" s="66"/>
@@ -11030,27 +10940,27 @@
       <c r="I59" s="22"/>
       <c r="J59" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="5"/>
       <c r="M59" s="20">
         <f ca="1">L59-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N59" s="20"/>
       <c r="O59" s="21"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R59" s="57"/>
       <c r="S59" s="58"/>
       <c r="T59" s="57"/>
       <c r="U59" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V59" s="59"/>
       <c r="W59" s="60"/>
@@ -11068,7 +10978,7 @@
       <c r="AI59" s="66"/>
       <c r="AJ59" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK59" s="66"/>
       <c r="AL59" s="66"/>
@@ -11095,27 +11005,27 @@
       <c r="I60" s="22"/>
       <c r="J60" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="5"/>
       <c r="M60" s="20">
         <f ca="1">L60-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="21"/>
       <c r="P60" s="25"/>
       <c r="Q60" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R60" s="57"/>
       <c r="S60" s="58"/>
       <c r="T60" s="57"/>
       <c r="U60" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V60" s="59"/>
       <c r="W60" s="60"/>
@@ -11133,7 +11043,7 @@
       <c r="AI60" s="66"/>
       <c r="AJ60" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK60" s="66"/>
       <c r="AL60" s="66"/>
@@ -11160,27 +11070,27 @@
       <c r="I61" s="22"/>
       <c r="J61" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20">
         <f t="shared" ref="M61:M83" ca="1" si="9">L61-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N61" s="20"/>
       <c r="O61" s="21"/>
       <c r="P61" s="25"/>
       <c r="Q61" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R61" s="57"/>
       <c r="S61" s="58"/>
       <c r="T61" s="57"/>
       <c r="U61" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V61" s="59"/>
       <c r="W61" s="60"/>
@@ -11198,7 +11108,7 @@
       <c r="AI61" s="66"/>
       <c r="AJ61" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK61" s="66"/>
       <c r="AL61" s="66"/>
@@ -11225,27 +11135,27 @@
       <c r="I62" s="22"/>
       <c r="J62" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N62" s="20"/>
       <c r="O62" s="21"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R62" s="86"/>
       <c r="S62" s="87"/>
       <c r="T62" s="86"/>
       <c r="U62" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V62" s="59"/>
       <c r="W62" s="88"/>
@@ -11263,7 +11173,7 @@
       <c r="AI62" s="90"/>
       <c r="AJ62" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK62" s="90"/>
       <c r="AL62" s="90"/>
@@ -11290,27 +11200,27 @@
       <c r="I63" s="22"/>
       <c r="J63" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N63" s="20"/>
       <c r="O63" s="21"/>
       <c r="P63" s="25"/>
       <c r="Q63" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R63" s="57"/>
       <c r="S63" s="58"/>
       <c r="T63" s="57"/>
       <c r="U63" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V63" s="59"/>
       <c r="W63" s="60"/>
@@ -11328,7 +11238,7 @@
       <c r="AI63" s="66"/>
       <c r="AJ63" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK63" s="66"/>
       <c r="AL63" s="66"/>
@@ -11355,27 +11265,27 @@
       <c r="I64" s="22"/>
       <c r="J64" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N64" s="20"/>
       <c r="O64" s="21"/>
       <c r="P64" s="25"/>
       <c r="Q64" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R64" s="57"/>
       <c r="S64" s="58"/>
       <c r="T64" s="57"/>
       <c r="U64" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V64" s="59"/>
       <c r="W64" s="60"/>
@@ -11393,7 +11303,7 @@
       <c r="AI64" s="66"/>
       <c r="AJ64" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK64" s="66"/>
       <c r="AL64" s="66"/>
@@ -11420,27 +11330,27 @@
       <c r="I65" s="22"/>
       <c r="J65" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K65" s="20"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N65" s="25"/>
       <c r="O65" s="21"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R65" s="57"/>
       <c r="S65" s="58"/>
       <c r="T65" s="57"/>
       <c r="U65" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V65" s="59"/>
       <c r="W65" s="60"/>
@@ -11458,7 +11368,7 @@
       <c r="AI65" s="66"/>
       <c r="AJ65" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK65" s="66"/>
       <c r="AL65" s="66"/>
@@ -11485,27 +11395,27 @@
       <c r="I66" s="22"/>
       <c r="J66" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K66" s="20"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="21"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R66" s="57"/>
       <c r="S66" s="58"/>
       <c r="T66" s="57"/>
       <c r="U66" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V66" s="59"/>
       <c r="W66" s="60"/>
@@ -11523,7 +11433,7 @@
       <c r="AI66" s="66"/>
       <c r="AJ66" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK66" s="66"/>
       <c r="AL66" s="66"/>
@@ -11550,27 +11460,27 @@
       <c r="I67" s="22"/>
       <c r="J67" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N67" s="20"/>
       <c r="O67" s="21"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R67" s="57"/>
       <c r="S67" s="58"/>
       <c r="T67" s="57"/>
       <c r="U67" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V67" s="59"/>
       <c r="W67" s="60"/>
@@ -11588,7 +11498,7 @@
       <c r="AI67" s="66"/>
       <c r="AJ67" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK67" s="66"/>
       <c r="AL67" s="66"/>
@@ -11615,27 +11525,27 @@
       <c r="I68" s="22"/>
       <c r="J68" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="21"/>
       <c r="P68" s="25"/>
       <c r="Q68" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R68" s="57"/>
       <c r="S68" s="58"/>
       <c r="T68" s="57"/>
       <c r="U68" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V68" s="59"/>
       <c r="W68" s="60"/>
@@ -11653,7 +11563,7 @@
       <c r="AI68" s="66"/>
       <c r="AJ68" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK68" s="66"/>
       <c r="AL68" s="66"/>
@@ -11680,27 +11590,27 @@
       <c r="I69" s="22"/>
       <c r="J69" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="21"/>
       <c r="P69" s="25"/>
       <c r="Q69" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R69" s="57"/>
       <c r="S69" s="58"/>
       <c r="T69" s="57"/>
       <c r="U69" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V69" s="59"/>
       <c r="W69" s="60"/>
@@ -11718,7 +11628,7 @@
       <c r="AI69" s="66"/>
       <c r="AJ69" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK69" s="66"/>
       <c r="AL69" s="66"/>
@@ -11757,7 +11667,7 @@
       </c>
       <c r="J70" s="20">
         <f ca="1">I70-TODAY()</f>
-        <v>-912</v>
+        <v>-923</v>
       </c>
       <c r="K70" s="20" t="s">
         <v>194</v>
@@ -11767,7 +11677,7 @@
       </c>
       <c r="M70" s="20">
         <f ca="1">L70-TODAY()</f>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="N70" s="20"/>
       <c r="O70" s="21" t="s">
@@ -11778,14 +11688,14 @@
       </c>
       <c r="Q70" s="20">
         <f ca="1">P70-TODAY()</f>
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="R70" s="57"/>
       <c r="S70" s="58"/>
       <c r="T70" s="57"/>
       <c r="U70" s="20">
         <f ca="1">T70-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V70" s="59"/>
       <c r="W70" s="60"/>
@@ -11803,7 +11713,7 @@
       <c r="AI70" s="66"/>
       <c r="AJ70" s="20">
         <f ca="1">AI70-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK70" s="66"/>
       <c r="AL70" s="66"/>
@@ -11844,7 +11754,7 @@
       </c>
       <c r="J71" s="20">
         <f ca="1">I71-TODAY()</f>
-        <v>-912</v>
+        <v>-923</v>
       </c>
       <c r="K71" s="20" t="s">
         <v>193</v>
@@ -11854,7 +11764,7 @@
       </c>
       <c r="M71" s="20">
         <f ca="1">L71-TODAY()</f>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="21" t="s">
@@ -11865,14 +11775,14 @@
       </c>
       <c r="Q71" s="20">
         <f ca="1">P71-TODAY()</f>
-        <v>-705</v>
+        <v>-716</v>
       </c>
       <c r="R71" s="57"/>
       <c r="S71" s="58"/>
       <c r="T71" s="57"/>
       <c r="U71" s="20">
         <f ca="1">T71-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V71" s="59"/>
       <c r="W71" s="60"/>
@@ -11890,7 +11800,7 @@
       <c r="AI71" s="66"/>
       <c r="AJ71" s="20">
         <f ca="1">AI71-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK71" s="66"/>
       <c r="AL71" s="66"/>
@@ -11919,27 +11829,27 @@
       <c r="I72" s="22"/>
       <c r="J72" s="20">
         <f ca="1">I72-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="5"/>
       <c r="M72" s="20">
         <f ca="1">L72-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="21"/>
       <c r="P72" s="25"/>
       <c r="Q72" s="20">
         <f ca="1">P72-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R72" s="57"/>
       <c r="S72" s="58"/>
       <c r="T72" s="57"/>
       <c r="U72" s="20">
         <f ca="1">T72-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V72" s="59"/>
       <c r="W72" s="60"/>
@@ -11957,7 +11867,7 @@
       <c r="AI72" s="66"/>
       <c r="AJ72" s="20">
         <f ca="1">AI72-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK72" s="66"/>
       <c r="AL72" s="66"/>
@@ -11998,13 +11908,13 @@
       </c>
       <c r="J73" s="20">
         <f ca="1">I73-TODAY()</f>
-        <v>-594</v>
+        <v>-605</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="5"/>
       <c r="M73" s="20">
         <f ca="1">L73-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="21" t="s">
@@ -12013,7 +11923,7 @@
       <c r="P73" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Q73" s="20" t="e" vm="1">
+      <c r="Q73" s="20" t="e">
         <f ca="1">P73-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -12022,7 +11932,7 @@
       <c r="T73" s="57"/>
       <c r="U73" s="20">
         <f ca="1">T73-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V73" s="59"/>
       <c r="W73" s="60"/>
@@ -12040,7 +11950,7 @@
       <c r="AI73" s="66"/>
       <c r="AJ73" s="20">
         <f ca="1">AI73-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK73" s="66"/>
       <c r="AL73" s="66"/>
@@ -12067,27 +11977,27 @@
       <c r="I74" s="22"/>
       <c r="J74" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="21"/>
       <c r="P74" s="25"/>
       <c r="Q74" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R74" s="57"/>
       <c r="S74" s="58"/>
       <c r="T74" s="57"/>
       <c r="U74" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
@@ -12105,7 +12015,7 @@
       <c r="AI74" s="66"/>
       <c r="AJ74" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK74" s="66"/>
       <c r="AL74" s="66"/>
@@ -12132,27 +12042,27 @@
       <c r="I75" s="22"/>
       <c r="J75" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K75" s="20"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N75" s="20"/>
       <c r="O75" s="21"/>
       <c r="P75" s="25"/>
       <c r="Q75" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R75" s="57"/>
       <c r="S75" s="58"/>
       <c r="T75" s="57"/>
       <c r="U75" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V75" s="59"/>
       <c r="W75" s="60"/>
@@ -12170,7 +12080,7 @@
       <c r="AI75" s="66"/>
       <c r="AJ75" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK75" s="66"/>
       <c r="AL75" s="66"/>
@@ -12197,27 +12107,27 @@
       <c r="I76" s="22"/>
       <c r="J76" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="21"/>
       <c r="P76" s="25"/>
       <c r="Q76" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R76" s="57"/>
       <c r="S76" s="58"/>
       <c r="T76" s="57"/>
       <c r="U76" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
@@ -12235,7 +12145,7 @@
       <c r="AI76" s="66"/>
       <c r="AJ76" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK76" s="66"/>
       <c r="AL76" s="66"/>
@@ -12262,27 +12172,27 @@
       <c r="I77" s="22"/>
       <c r="J77" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N77" s="20"/>
       <c r="O77" s="21"/>
       <c r="P77" s="25"/>
       <c r="Q77" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R77" s="57"/>
       <c r="S77" s="58"/>
       <c r="T77" s="57"/>
       <c r="U77" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V77" s="59"/>
       <c r="W77" s="60"/>
@@ -12300,7 +12210,7 @@
       <c r="AI77" s="66"/>
       <c r="AJ77" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK77" s="66"/>
       <c r="AL77" s="66"/>
@@ -12328,7 +12238,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
@@ -12379,7 +12289,7 @@
       <c r="L79" s="22"/>
       <c r="M79" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -12430,7 +12340,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -12481,7 +12391,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -12532,7 +12442,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
@@ -12583,7 +12493,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
@@ -12620,7 +12530,7 @@
       <c r="AT83" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR83" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:AR83">
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="21" showButton="0"/>
@@ -12719,29 +12629,29 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=dW5qSnNrNnJoNW1tRzJ0U09KamwvRDVMVlIwZGF2UjZmMUZNcktHdWQxUnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H6" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H71" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H70" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H7" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H8" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNcHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H9" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Z3F2SHI5UHovY3UxL1BOWVJOSlhvMWk2d0FnUjVNRkNQS3BaTXZ3VDhOZHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H10" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H11" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H12" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H13" r:id="rId13" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=T01zOC85eUN1WXU5TE0vWEJEcGV4aVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H73" r:id="rId14" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=M1hiNzNkTzQrTW1LUk5DbXQ2V2Z6Z0V5Y0txdEhSa2h1c3MzUjdOektkQnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H14" r:id="rId15" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NXNrbVJzUEtKWXhiTzY1ejl5ai9yZ0V5Y0txdEhSa2h1c3MzUjdOektkQnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H15" r:id="rId16" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RzV2Sm4yUFdoVkkyWnYvSWt0UVRib0lVSWtBQmhCN2VoN01xTTYzSEYrNXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H16" r:id="rId17" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NzllZm9jalpYditCSURHdlE2dEluWUlVSWtBQmhCN2VoN01xTTYzSEYrNXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H17" r:id="rId18" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=bVIrdExTZlh2eENMN3BaQ2FkbEFUaWtOL2JHeW13TWpUMjM3NCtSdlVSTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H18" r:id="rId19" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UFczOFgwZlcra0ZSSE0zWnF4V3dFWFpadDJuK0c2QlFUU1JZcENzUDNmTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H19" r:id="rId20" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NFlwR1FhL0hxV0RxNmQrNTZLSG9wTEUrNU9VMDVLNEtDenc3QlR0YWR2WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H20" r:id="rId21" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=QjhzeXVOSmJQcjkrRU5Gck9EQU53UEJPNmZqWldEcU1CZkxxbkxVdU41eDdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0=" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H21" r:id="rId22" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=eG1GeXlMbmppaUR4MmR1UWoxRFQwc002Ymc0bVdPSGRNdkhCdzVzTTZ6dDdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0=" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H22" r:id="rId23" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=OGJLNUVtUDFiR1ZxaWRuYVp4RjBhNkdidG5vVGdFTmM0bFA0Q3ZTWnZNOTdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0=" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=dW5qSnNrNnJoNW1tRzJ0U09KamwvRDVMVlIwZGF2UjZmMUZNcktHdWQxUnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H4" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H5" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H6" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H71" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H70" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H7" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H8" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNcHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H9" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Z3F2SHI5UHovY3UxL1BOWVJOSlhvMWk2d0FnUjVNRkNQS3BaTXZ3VDhOZHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H10" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H11" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H12" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H13" r:id="rId13" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=T01zOC85eUN1WXU5TE0vWEJEcGV4aVdXbm5oK3ErN3ZPZFZrbXMvSjVNaHZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H73" r:id="rId14" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=M1hiNzNkTzQrTW1LUk5DbXQ2V2Z6Z0V5Y0txdEhSa2h1c3MzUjdOektkQnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H14" r:id="rId15" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NXNrbVJzUEtKWXhiTzY1ejl5ai9yZ0V5Y0txdEhSa2h1c3MzUjdOektkQnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H15" r:id="rId16" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RzV2Sm4yUFdoVkkyWnYvSWt0UVRib0lVSWtBQmhCN2VoN01xTTYzSEYrNXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H16" r:id="rId17" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NzllZm9jalpYditCSURHdlE2dEluWUlVSWtBQmhCN2VoN01xTTYzSEYrNXZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H17" r:id="rId18" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=bVIrdExTZlh2eENMN3BaQ2FkbEFUaWtOL2JHeW13TWpUMjM3NCtSdlVSTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H18" r:id="rId19" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UFczOFgwZlcra0ZSSE0zWnF4V3dFWFpadDJuK0c2QlFUU1JZcENzUDNmTnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H19" r:id="rId20" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NFlwR1FhL0hxV0RxNmQrNTZLSG9wTEUrNU9VMDVLNEtDenc3QlR0YWR2WnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
+    <hyperlink ref="H20" r:id="rId21" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=QjhzeXVOSmJQcjkrRU5Gck9EQU53UEJPNmZqWldEcU1CZkxxbkxVdU41eDdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0="/>
+    <hyperlink ref="H21" r:id="rId22" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=eG1GeXlMbmppaUR4MmR1UWoxRFQwc002Ymc0bVdPSGRNdkhCdzVzTTZ6dDdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0="/>
+    <hyperlink ref="H22" r:id="rId23" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=OGJLNUVtUDFiR1ZxaWRuYVp4RjBhNkdidG5vVGdFTmM0bFA0Q3ZTWnZNOTdMV0lzb2xVN0VlWmFtYm5FbWxwMUkwcGxkdmxLVlllagprTHB0Zk5EbE9BPT0="/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.25" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12753,166 +12663,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="323" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="263" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.44140625" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" customWidth="1"/>
+    <col min="29" max="29" width="18.88671875" customWidth="1"/>
     <col min="30" max="30" width="25" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" customWidth="1"/>
     <col min="33" max="33" width="25" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" customWidth="1"/>
     <col min="35" max="35" width="25" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" customWidth="1"/>
     <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" customWidth="1"/>
-    <col min="39" max="39" width="24.42578125" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13.85546875" customWidth="1"/>
-    <col min="42" max="42" width="28.7109375" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13.88671875" customWidth="1"/>
+    <col min="39" max="39" width="24.44140625" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" customWidth="1"/>
+    <col min="41" max="41" width="13.88671875" customWidth="1"/>
+    <col min="42" max="42" width="28.6640625" customWidth="1"/>
+    <col min="43" max="43" width="10.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="292" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="286" t="s">
+      <c r="B1" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="288" t="s">
+      <c r="C1" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="286" t="s">
+      <c r="D1" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="270" t="s">
+      <c r="E1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="270" t="s">
+      <c r="F1" s="265" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="286" t="s">
+      <c r="H1" s="292" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="286" t="s">
+      <c r="I1" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="317" t="s">
+      <c r="J1" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="286" t="s">
+      <c r="K1" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="286" t="s">
+      <c r="L1" s="292" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="286" t="s">
+      <c r="M1" s="292" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="296" t="s">
+      <c r="N1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
-      <c r="Q1" s="298"/>
-      <c r="R1" s="299" t="s">
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="300"/>
-      <c r="T1" s="301"/>
-      <c r="U1" s="302" t="s">
+      <c r="S1" s="308"/>
+      <c r="T1" s="309"/>
+      <c r="U1" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="304" t="s">
+      <c r="V1" s="311"/>
+      <c r="W1" s="311"/>
+      <c r="X1" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306" t="s">
+      <c r="Y1" s="313"/>
+      <c r="Z1" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="307"/>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="307"/>
-      <c r="AD1" s="307"/>
+      <c r="AA1" s="315"/>
+      <c r="AB1" s="315"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
       <c r="AE1" s="142"/>
-      <c r="AF1" s="290" t="s">
+      <c r="AF1" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="291"/>
-      <c r="AH1" s="292" t="s">
+      <c r="AG1" s="299"/>
+      <c r="AH1" s="300" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="292" t="s">
+      <c r="AI1" s="301"/>
+      <c r="AJ1" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="294" t="s">
+      <c r="AK1" s="301"/>
+      <c r="AL1" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="295"/>
-      <c r="AN1" s="295"/>
-      <c r="AO1" s="295"/>
-      <c r="AP1" s="295"/>
-      <c r="AQ1" s="295"/>
+      <c r="AM1" s="303"/>
+      <c r="AN1" s="303"/>
+      <c r="AO1" s="303"/>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="303"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="287"/>
-      <c r="B2" s="287"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="287"/>
+      <c r="A2" s="293"/>
+      <c r="B2" s="293"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
       <c r="N2" s="105" t="s">
         <v>14</v>
       </c>
@@ -13032,15 +12942,15 @@
       <c r="I3" s="247">
         <v>45985</v>
       </c>
-      <c r="J3" s="319">
+      <c r="J3" s="259">
         <f t="shared" ref="J3:J11" ca="1" si="0">I3-TODAY()</f>
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K3" s="159"/>
       <c r="L3" s="247"/>
-      <c r="M3" s="319">
+      <c r="M3" s="259">
         <f t="shared" ref="M3:M11" ca="1" si="1">L3-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N3" s="159"/>
       <c r="O3" s="160"/>
@@ -13105,12 +13015,12 @@
       <c r="I4" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="319"/>
+      <c r="J4" s="259"/>
       <c r="K4" s="159"/>
       <c r="L4" s="158"/>
-      <c r="M4" s="319">
+      <c r="M4" s="259">
         <f t="shared" ca="1" si="1"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N4" s="159"/>
       <c r="O4" s="160" t="s">
@@ -13119,7 +13029,7 @@
       <c r="P4" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="159" t="e" vm="1">
+      <c r="Q4" s="159" t="e">
         <f t="shared" ref="Q4:Q7" ca="1" si="2">P4-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -13128,7 +13038,7 @@
       <c r="T4" s="161"/>
       <c r="U4" s="159">
         <f ca="1">T4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V4" s="159"/>
       <c r="W4" s="163"/>
@@ -13146,7 +13056,7 @@
       <c r="AI4" s="163"/>
       <c r="AJ4" s="159">
         <f ca="1">AI4-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK4" s="163"/>
       <c r="AL4" s="163"/>
@@ -13184,9 +13094,9 @@
       <c r="I5" s="188">
         <v>46037</v>
       </c>
-      <c r="J5" s="319">
+      <c r="J5" s="259">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K5" s="159" t="s">
         <v>365</v>
@@ -13196,7 +13106,7 @@
       </c>
       <c r="M5" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="N5" s="159"/>
       <c r="O5" s="160" t="s">
@@ -13205,7 +13115,7 @@
       <c r="P5" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="Q5" s="159" t="e" vm="1">
+      <c r="Q5" s="159" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -13214,7 +13124,7 @@
       <c r="T5" s="161"/>
       <c r="U5" s="159">
         <f ca="1">T5-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V5" s="159"/>
       <c r="W5" s="163"/>
@@ -13232,7 +13142,7 @@
       <c r="AI5" s="163"/>
       <c r="AJ5" s="159">
         <f ca="1">AI5-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK5" s="164" t="s">
         <v>295</v>
@@ -13274,9 +13184,9 @@
       <c r="I6" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="320">
+      <c r="J6" s="260">
         <f t="shared" ca="1" si="0"/>
-        <v>-252</v>
+        <v>-263</v>
       </c>
       <c r="K6" s="172" t="s">
         <v>165</v>
@@ -13286,7 +13196,7 @@
       </c>
       <c r="M6" s="172">
         <f t="shared" ca="1" si="1"/>
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="N6" s="172"/>
       <c r="O6" s="233" t="s">
@@ -13295,7 +13205,7 @@
       <c r="P6" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="172" t="e" vm="1">
+      <c r="Q6" s="172" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -13304,7 +13214,7 @@
       <c r="T6" s="191"/>
       <c r="U6" s="172">
         <f ca="1">T6-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V6" s="172"/>
       <c r="W6" s="196"/>
@@ -13322,7 +13232,7 @@
       <c r="AI6" s="196"/>
       <c r="AJ6" s="172">
         <f ca="1">AI6-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK6" s="196"/>
       <c r="AL6" s="196"/>
@@ -13360,12 +13270,12 @@
       <c r="I7" s="203">
         <v>45549</v>
       </c>
-      <c r="J7" s="321"/>
+      <c r="J7" s="261"/>
       <c r="K7" s="177"/>
       <c r="L7" s="203"/>
       <c r="M7" s="177">
         <f t="shared" ca="1" si="1"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N7" s="177"/>
       <c r="O7" s="204" t="s">
@@ -13374,7 +13284,7 @@
       <c r="P7" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="177" t="e" vm="1">
+      <c r="Q7" s="177" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -13433,7 +13343,7 @@
       <c r="I8" s="203">
         <v>45188</v>
       </c>
-      <c r="J8" s="321"/>
+      <c r="J8" s="261"/>
       <c r="K8" s="177"/>
       <c r="L8" s="203"/>
       <c r="M8" s="177"/>
@@ -13494,9 +13404,9 @@
       <c r="I9" s="203">
         <v>45567</v>
       </c>
-      <c r="J9" s="321">
+      <c r="J9" s="261">
         <f t="shared" ca="1" si="0"/>
-        <v>-159</v>
+        <v>-170</v>
       </c>
       <c r="K9" s="177" t="s">
         <v>422</v>
@@ -13506,7 +13416,7 @@
       </c>
       <c r="M9" s="177">
         <f t="shared" ca="1" si="1"/>
-        <v>3347</v>
+        <v>3336</v>
       </c>
       <c r="N9" s="177"/>
       <c r="O9" s="204" t="s">
@@ -13515,7 +13425,7 @@
       <c r="P9" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="177" t="e" vm="1">
+      <c r="Q9" s="177" t="e">
         <f ca="1">P9-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -13576,7 +13486,7 @@
       <c r="I10" s="203">
         <v>45656</v>
       </c>
-      <c r="J10" s="321"/>
+      <c r="J10" s="261"/>
       <c r="K10" s="177" t="s">
         <v>331</v>
       </c>
@@ -13585,7 +13495,7 @@
       </c>
       <c r="M10" s="177">
         <f t="shared" ca="1" si="1"/>
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="N10" s="177"/>
       <c r="O10" s="204" t="s">
@@ -13594,7 +13504,7 @@
       <c r="P10" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="177" t="e" vm="1">
+      <c r="Q10" s="177" t="e">
         <f ca="1">P10-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -13651,9 +13561,9 @@
       <c r="I11" s="203">
         <v>45710</v>
       </c>
-      <c r="J11" s="321">
+      <c r="J11" s="261">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>-27</v>
       </c>
       <c r="K11" s="177" t="s">
         <v>337</v>
@@ -13663,7 +13573,7 @@
       </c>
       <c r="M11" s="177">
         <f t="shared" ca="1" si="1"/>
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="N11" s="177"/>
       <c r="O11" s="204" t="s">
@@ -13672,7 +13582,7 @@
       <c r="P11" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="177" t="e" vm="1">
+      <c r="Q11" s="177" t="e">
         <f ca="1">P11-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -13685,7 +13595,7 @@
       </c>
       <c r="U11" s="159">
         <f ca="1">T11-TODAY()</f>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="V11" s="179"/>
       <c r="W11" s="176"/>
@@ -13738,9 +13648,9 @@
       <c r="I12" s="239" t="s">
         <v>383</v>
       </c>
-      <c r="J12" s="321">
+      <c r="J12" s="261">
         <f ca="1">I12-TODAY()</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="177" t="s">
         <v>351</v>
@@ -13750,14 +13660,14 @@
       </c>
       <c r="M12" s="177">
         <f t="shared" ref="M12:M15" ca="1" si="3">L12-TODAY()</f>
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="N12" s="177"/>
       <c r="O12" s="204"/>
       <c r="P12" s="176"/>
       <c r="Q12" s="177">
         <f ca="1">P12-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R12" s="176"/>
       <c r="S12" s="178"/>
@@ -13814,9 +13724,9 @@
       <c r="I13" s="203">
         <v>45825</v>
       </c>
-      <c r="J13" s="321">
+      <c r="J13" s="261">
         <f ca="1">I13-TODAY()</f>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K13" s="177" t="s">
         <v>369</v>
@@ -13826,7 +13736,7 @@
       </c>
       <c r="M13" s="177">
         <f t="shared" ca="1" si="3"/>
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N13" s="177"/>
       <c r="O13" s="204"/>
@@ -13887,9 +13797,9 @@
       <c r="I14" s="239" t="s">
         <v>391</v>
       </c>
-      <c r="J14" s="322">
+      <c r="J14" s="262">
         <f t="shared" ref="J14:J15" ca="1" si="4">I14-TODAY()</f>
-        <v>-72</v>
+        <v>-83</v>
       </c>
       <c r="K14" s="177" t="s">
         <v>392</v>
@@ -13899,7 +13809,7 @@
       </c>
       <c r="M14" s="177">
         <f t="shared" ca="1" si="3"/>
-        <v>-41</v>
+        <v>-52</v>
       </c>
       <c r="N14" s="177"/>
       <c r="O14" s="204"/>
@@ -13960,9 +13870,9 @@
       <c r="I15" s="203">
         <v>46305</v>
       </c>
-      <c r="J15" s="321">
+      <c r="J15" s="261">
         <f t="shared" ca="1" si="4"/>
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K15" s="177" t="s">
         <v>451</v>
@@ -13972,7 +13882,7 @@
       </c>
       <c r="M15" s="177">
         <f t="shared" ca="1" si="3"/>
-        <v>2947</v>
+        <v>2936</v>
       </c>
       <c r="N15" s="177"/>
       <c r="O15" s="204" t="s">
@@ -13981,7 +13891,7 @@
       <c r="P15" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="177" t="e" vm="1">
+      <c r="Q15" s="177" t="e">
         <f ca="1">P15-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -14040,9 +13950,9 @@
       <c r="I16" s="203">
         <v>45825</v>
       </c>
-      <c r="J16" s="321">
+      <c r="J16" s="261">
         <f ca="1">I16-TODAY()</f>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K16" s="177" t="s">
         <v>405</v>
@@ -14052,7 +13962,7 @@
       </c>
       <c r="M16" s="177">
         <f ca="1">L16-TODAY()</f>
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="N16" s="177"/>
       <c r="O16" s="204"/>
@@ -14097,29 +14007,29 @@
       <c r="G17" s="159"/>
       <c r="H17" s="159"/>
       <c r="I17" s="188"/>
-      <c r="J17" s="319">
+      <c r="J17" s="259">
         <f ca="1">I17-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K17" s="159"/>
       <c r="L17" s="158"/>
       <c r="M17" s="159">
         <f ca="1">L17-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N17" s="159"/>
       <c r="O17" s="160"/>
       <c r="P17" s="161"/>
       <c r="Q17" s="159">
         <f ca="1">P17-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="R17" s="161"/>
       <c r="S17" s="162"/>
       <c r="T17" s="161"/>
       <c r="U17" s="159">
         <f ca="1">T17-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="V17" s="159"/>
       <c r="W17" s="163"/>
@@ -14137,7 +14047,7 @@
       <c r="AI17" s="163"/>
       <c r="AJ17" s="159">
         <f ca="1">AI17-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="AK17" s="163"/>
       <c r="AL17" s="163"/>
@@ -14159,15 +14069,15 @@
       <c r="G18" s="159"/>
       <c r="H18" s="177"/>
       <c r="I18" s="203"/>
-      <c r="J18" s="321">
+      <c r="J18" s="261">
         <f ca="1">I18-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="K18" s="177"/>
       <c r="L18" s="203"/>
       <c r="M18" s="177">
         <f ca="1">L18-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="N18" s="177"/>
       <c r="O18" s="204" t="s">
@@ -14176,7 +14086,7 @@
       <c r="P18" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="Q18" s="177" t="e" vm="1">
+      <c r="Q18" s="177" t="e">
         <f ca="1">P18-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -14208,108 +14118,108 @@
       <c r="AQ18" s="182"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="324" t="s">
+      <c r="A20" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="B20" s="324"/>
-      <c r="C20" s="324"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="264"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="324">
+      <c r="A21" s="264">
         <v>1</v>
       </c>
-      <c r="B21" s="324" t="s">
+      <c r="B21" s="264" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="324"/>
+      <c r="C21" s="264"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="324">
+      <c r="A22" s="264">
         <v>2</v>
       </c>
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="264" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="324"/>
+      <c r="C22" s="264"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="324" t="s">
+      <c r="A23" s="264" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="264" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="324"/>
+      <c r="C23" s="264"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="324"/>
-      <c r="B24" s="324" t="s">
+      <c r="A24" s="264"/>
+      <c r="B24" s="264" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="324"/>
+      <c r="C24" s="264"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="324"/>
-      <c r="B25" s="324" t="s">
+      <c r="A25" s="264"/>
+      <c r="B25" s="264" t="s">
         <v>476</v>
       </c>
-      <c r="C25" s="324"/>
+      <c r="C25" s="264"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="324"/>
-      <c r="B26" s="324" t="s">
+      <c r="A26" s="264"/>
+      <c r="B26" s="264" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="324"/>
+      <c r="C26" s="264"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="324"/>
-      <c r="B27" s="324" t="s">
+      <c r="A27" s="264"/>
+      <c r="B27" s="264" t="s">
         <v>478</v>
       </c>
-      <c r="C27" s="324"/>
+      <c r="C27" s="264"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="324">
+      <c r="A28" s="264">
         <v>3</v>
       </c>
-      <c r="B28" s="324" t="s">
+      <c r="B28" s="264" t="s">
         <v>479</v>
       </c>
-      <c r="C28" s="324"/>
+      <c r="C28" s="264"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="324" t="s">
+      <c r="A29" s="264" t="s">
         <v>480</v>
       </c>
-      <c r="B29" s="324" t="s">
+      <c r="B29" s="264" t="s">
         <v>481</v>
       </c>
-      <c r="C29" s="324"/>
+      <c r="C29" s="264"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="324"/>
-      <c r="B30" s="324" t="s">
+      <c r="A30" s="264"/>
+      <c r="B30" s="264" t="s">
         <v>482</v>
       </c>
-      <c r="C30" s="324"/>
+      <c r="C30" s="264"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="324"/>
-      <c r="B31" s="324" t="s">
+      <c r="A31" s="264"/>
+      <c r="B31" s="264" t="s">
         <v>483</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="264"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="324"/>
-      <c r="B32" s="324" t="s">
+      <c r="A32" s="264"/>
+      <c r="B32" s="264" t="s">
         <v>484</v>
       </c>
-      <c r="C32" s="324"/>
+      <c r="C32" s="264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ18" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:AQ18">
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
     <filterColumn colId="20" showButton="0"/>
@@ -14327,7 +14237,7 @@
     <filterColumn colId="39" showButton="0"/>
     <filterColumn colId="40" showButton="0"/>
     <filterColumn colId="41" showButton="0"/>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AQ18">
+    <sortState ref="A4:AQ18">
       <sortCondition ref="B1:B18"/>
     </sortState>
   </autoFilter>
@@ -14380,7 +14290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BEC274-7707-4903-98F3-67A8497F2CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -14390,91 +14300,91 @@
       <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
     <col min="21" max="21" width="25" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" customWidth="1"/>
-    <col min="26" max="26" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="24.44140625" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="265" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="261" t="s">
+      <c r="E1" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="262"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="268" t="s">
+      <c r="F1" s="268"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="269"/>
-      <c r="J1" s="264" t="s">
+      <c r="I1" s="277"/>
+      <c r="J1" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
       <c r="O1" s="143"/>
-      <c r="P1" s="266" t="s">
+      <c r="P1" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="272" t="s">
+      <c r="Q1" s="275"/>
+      <c r="R1" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="273"/>
-      <c r="T1" s="272" t="s">
+      <c r="S1" s="283"/>
+      <c r="T1" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="273"/>
-      <c r="V1" s="259" t="s">
+      <c r="U1" s="283"/>
+      <c r="V1" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="260"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
+      <c r="A2" s="266"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
       <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
@@ -14576,7 +14486,7 @@
       </c>
       <c r="T3" s="18">
         <f t="shared" ref="T3:T6" ca="1" si="0">S3-TODAY()</f>
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="U3" s="94"/>
       <c r="V3" s="94"/>
@@ -14623,7 +14533,7 @@
       </c>
       <c r="T4" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="U4" s="94"/>
       <c r="V4" s="94"/>
@@ -14662,7 +14572,7 @@
       <c r="S5" s="94"/>
       <c r="T5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="U5" s="94"/>
       <c r="V5" s="94"/>
@@ -14711,7 +14621,7 @@
       </c>
       <c r="T6" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="U6" s="94"/>
       <c r="V6" s="94"/>
@@ -14836,7 +14746,7 @@
       <c r="S9" s="66"/>
       <c r="T9" s="20">
         <f t="shared" ref="T9" ca="1" si="1">S9-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="U9" s="66"/>
       <c r="V9" s="66"/>
@@ -16005,40 +15915,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF4D6C-DBF6-4FC3-BA8D-266A4BB12AE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="310" t="s">
+      <c r="B1" s="318" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="320" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="309"/>
-      <c r="B2" s="311"/>
-      <c r="C2" s="313"/>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="317"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="321"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="24.9" customHeight="1">
       <c r="A3" s="141">
         <v>1</v>
       </c>
@@ -16049,7 +15959,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="139" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:3" s="139" customFormat="1" ht="24.9" customHeight="1">
       <c r="A4" s="141">
         <v>2</v>
       </c>
@@ -16060,7 +15970,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1">
+    <row r="5" spans="1:3" ht="24.9" customHeight="1">
       <c r="A5" s="141">
         <v>3</v>
       </c>
@@ -16071,7 +15981,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1">
+    <row r="6" spans="1:3" ht="24.9" customHeight="1">
       <c r="A6" s="141">
         <v>4</v>
       </c>
@@ -16082,7 +15992,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+    <row r="7" spans="1:3" ht="24.9" customHeight="1">
       <c r="A7" s="141">
         <v>5</v>
       </c>
@@ -16093,7 +16003,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1">
+    <row r="8" spans="1:3" ht="24.9" customHeight="1">
       <c r="A8" s="141">
         <v>6</v>
       </c>
@@ -16104,7 +16014,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1">
+    <row r="9" spans="1:3" ht="24.9" customHeight="1">
       <c r="A9" s="141">
         <v>7</v>
       </c>
@@ -16115,7 +16025,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1">
+    <row r="10" spans="1:3" ht="24.9" customHeight="1">
       <c r="A10" s="141">
         <v>8</v>
       </c>
@@ -16126,7 +16036,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1">
+    <row r="11" spans="1:3" ht="24.9" customHeight="1">
       <c r="A11" s="141">
         <v>9</v>
       </c>
@@ -16137,7 +16047,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+    <row r="12" spans="1:3" ht="24.9" customHeight="1">
       <c r="A12" s="141">
         <v>10</v>
       </c>
@@ -16148,7 +16058,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.95" customHeight="1">
+    <row r="13" spans="1:3" ht="24.9" customHeight="1">
       <c r="A13" s="141">
         <v>11</v>
       </c>
@@ -16159,7 +16069,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.95" customHeight="1">
+    <row r="14" spans="1:3" ht="24.9" customHeight="1">
       <c r="A14" s="141">
         <v>12</v>
       </c>
@@ -16170,7 +16080,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.95" customHeight="1">
+    <row r="15" spans="1:3" ht="24.9" customHeight="1">
       <c r="A15" s="141">
         <v>13</v>
       </c>
@@ -16181,7 +16091,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.95" customHeight="1">
+    <row r="16" spans="1:3" ht="24.9" customHeight="1">
       <c r="A16" s="141">
         <v>14</v>
       </c>
@@ -16192,7 +16102,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24.95" customHeight="1">
+    <row r="17" spans="1:3" ht="24.9" customHeight="1">
       <c r="A17" s="141">
         <v>15</v>
       </c>
@@ -16203,7 +16113,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1">
+    <row r="18" spans="1:3" ht="24.9" customHeight="1">
       <c r="A18" s="141">
         <v>16</v>
       </c>
@@ -16214,7 +16124,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1">
+    <row r="19" spans="1:3" ht="24.9" customHeight="1">
       <c r="A19" s="141">
         <v>17</v>
       </c>
@@ -16225,7 +16135,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24.95" customHeight="1">
+    <row r="20" spans="1:3" ht="24.9" customHeight="1">
       <c r="A20" s="141">
         <v>18</v>
       </c>
@@ -16236,7 +16146,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.95" customHeight="1">
+    <row r="21" spans="1:3" ht="24.9" customHeight="1">
       <c r="A21" s="141">
         <v>19</v>
       </c>
@@ -16247,7 +16157,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24.95" customHeight="1">
+    <row r="22" spans="1:3" ht="24.9" customHeight="1">
       <c r="A22" s="141">
         <v>20</v>
       </c>
@@ -16258,7 +16168,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.95" customHeight="1">
+    <row r="23" spans="1:3" ht="24.9" customHeight="1">
       <c r="A23" s="141">
         <v>21</v>
       </c>
@@ -16269,7 +16179,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24.95" customHeight="1">
+    <row r="24" spans="1:3" ht="24.9" customHeight="1">
       <c r="A24" s="141">
         <v>22</v>
       </c>
@@ -16280,7 +16190,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24.95" customHeight="1">
+    <row r="25" spans="1:3" ht="24.9" customHeight="1">
       <c r="A25" s="141">
         <v>23</v>
       </c>
@@ -16291,7 +16201,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1">
+    <row r="26" spans="1:3" ht="24.9" customHeight="1">
       <c r="A26" s="141">
         <v>24</v>
       </c>
@@ -16337,7 +16247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -16347,77 +16257,77 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="29" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="C1" s="316" t="s">
+      <c r="C1" s="324" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="270" t="s">
+      <c r="D2" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="270" t="s">
+      <c r="E2" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="283" t="s">
+      <c r="G2" s="289" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="284"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="261" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="262"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="314" t="s">
+      <c r="K2" s="268"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="322" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="315"/>
-      <c r="O2" s="314" t="s">
+      <c r="N2" s="323"/>
+      <c r="O2" s="322" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="315"/>
+      <c r="P2" s="323"/>
       <c r="Q2" s="221" t="s">
         <v>144</v>
       </c>
@@ -16427,12 +16337,12 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="271"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="287"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
       <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
@@ -16498,7 +16408,7 @@
       </c>
       <c r="I4" s="218">
         <f ca="1">H4-TODAY()</f>
-        <v>-378</v>
+        <v>-389</v>
       </c>
       <c r="J4" s="57" t="s">
         <v>111</v>
@@ -16545,7 +16455,7 @@
       <c r="H5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="20" t="e" vm="1">
+      <c r="I5" s="20" t="e">
         <f ca="1">H5-TODAY()</f>
         <v>#VALUE!</v>
       </c>
@@ -16770,7 +16680,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="20">
         <f t="shared" ref="I13:I24" ca="1" si="0">H13-TODAY()</f>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J13" s="57"/>
       <c r="K13" s="58"/>
@@ -16794,7 +16704,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J14" s="57"/>
       <c r="K14" s="58"/>
@@ -16818,7 +16728,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="58"/>
@@ -16842,7 +16752,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J16" s="57"/>
       <c r="K16" s="58"/>
@@ -16866,7 +16776,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J17" s="86"/>
       <c r="K17" s="87"/>
@@ -16890,7 +16800,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="58"/>
@@ -16914,7 +16824,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="58"/>
@@ -16938,7 +16848,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="58"/>
@@ -16962,7 +16872,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J21" s="57"/>
       <c r="K21" s="58"/>
@@ -16986,7 +16896,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J22" s="57"/>
       <c r="K22" s="58"/>
@@ -17010,7 +16920,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J23" s="57"/>
       <c r="K23" s="58"/>
@@ -17034,7 +16944,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>-45726</v>
+        <v>-45737</v>
       </c>
       <c r="J24" s="57"/>
       <c r="K24" s="58"/>
@@ -17084,7 +16994,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0=" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRnZNUTNaUUd6Vm9LSEpRMmNHYThKZkpTWUhxV0hRd29wNwptbXI2NkZMd3l3PT0="/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.25" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17096,20 +17006,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="63.75">
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" s="32" t="s">
         <v>195</v>
       </c>
@@ -17147,7 +17057,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="43.2">
       <c r="A4" s="33" t="s">
         <v>57</v>
       </c>
@@ -17185,7 +17095,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="43.2">
       <c r="A5" s="36" t="s">
         <v>58</v>
       </c>
@@ -17223,7 +17133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:12" ht="43.2">
       <c r="A6" s="33" t="s">
         <v>59</v>
       </c>
@@ -17261,7 +17171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="28.8">
       <c r="A7" s="36" t="s">
         <v>60</v>
       </c>
@@ -17299,7 +17209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:12" ht="43.2">
       <c r="A8" s="33" t="s">
         <v>61</v>
       </c>
@@ -17335,7 +17245,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="43.2">
       <c r="A9" s="36" t="s">
         <v>62</v>
       </c>
@@ -17371,7 +17281,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:12" ht="43.2">
       <c r="A10" s="33" t="s">
         <v>63</v>
       </c>
@@ -17407,7 +17317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:12" ht="43.2">
       <c r="A11" s="36" t="s">
         <v>64</v>
       </c>
@@ -17443,7 +17353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" ht="28.8">
       <c r="A12" s="33" t="s">
         <v>65</v>
       </c>
@@ -17479,7 +17389,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:12" ht="43.2">
       <c r="A13" s="36" t="s">
         <v>66</v>
       </c>
@@ -17515,7 +17425,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:12" ht="28.8">
       <c r="A14" s="33" t="s">
         <v>67</v>
       </c>
@@ -17551,7 +17461,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:12" ht="43.2">
       <c r="A15" s="36" t="s">
         <v>68</v>
       </c>
@@ -17587,7 +17497,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:12" ht="43.2">
       <c r="A16" s="33" t="s">
         <v>69</v>
       </c>
@@ -17623,7 +17533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="28.8">
       <c r="A17" s="36" t="s">
         <v>70</v>
       </c>
@@ -17659,7 +17569,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="43.2">
       <c r="A18" s="33" t="s">
         <v>71</v>
       </c>
@@ -17695,7 +17605,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="43.2">
       <c r="A19" s="36" t="s">
         <v>72</v>
       </c>
@@ -17731,7 +17641,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="43.2">
       <c r="A20" s="33" t="s">
         <v>73</v>
       </c>
@@ -17767,7 +17677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30">
+    <row r="21" spans="1:12" ht="43.2">
       <c r="A21" s="36" t="s">
         <v>74</v>
       </c>
@@ -17803,7 +17713,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30">
+    <row r="22" spans="1:12" ht="43.2">
       <c r="A22" s="33" t="s">
         <v>75</v>
       </c>
@@ -17839,7 +17749,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30">
+    <row r="23" spans="1:12" ht="43.2">
       <c r="A23" s="36" t="s">
         <v>76</v>
       </c>
@@ -17859,7 +17769,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="43.2">
       <c r="A24" s="33" t="s">
         <v>131</v>
       </c>
@@ -17895,7 +17805,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="43.2">
       <c r="A25" s="36" t="s">
         <v>77</v>
       </c>
@@ -17931,7 +17841,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="33" t="s">
         <v>78</v>
       </c>
@@ -17967,7 +17877,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="43.2">
       <c r="A27" s="36" t="s">
         <v>110</v>
       </c>
@@ -18003,7 +17913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="43.2">
       <c r="A28" s="33" t="s">
         <v>150</v>
       </c>
@@ -18039,7 +17949,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="43.2">
       <c r="A29" s="36" t="s">
         <v>152</v>
       </c>
@@ -18075,7 +17985,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="43.2">
       <c r="A30" s="33" t="s">
         <v>154</v>
       </c>
@@ -18111,7 +18021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12" ht="43.2">
       <c r="A31" s="36" t="s">
         <v>148</v>
       </c>
@@ -18133,39 +18043,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_WPNO&amp;order=Descending&amp;isNew=false" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_NAME&amp;order=Descending&amp;isNew=false" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_EXPIRY_DT&amp;order=Descending&amp;isNew=false" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="K3" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_LVRATE&amp;order=Descending&amp;isNew=false" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="L3" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_R1_R2_IND&amp;order=Descending&amp;isNew=false" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=dW5qSnNrNnJoNW1tRzJ0U09KamwvRDVMVlIwZGF2UjZmMUZNcktHdWQxUVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="A6" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="A7" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="A9" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="A10" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="A11" r:id="rId13" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNb1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="A12" r:id="rId14" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Z3F2SHI5UHovY3UxL1BOWVJOSlhvMWk2d0FnUjVNRkNQS3BaTXZ3VDhOY1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="A13" r:id="rId15" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="A14" r:id="rId16" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="A15" r:id="rId17" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="A16" r:id="rId18" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=T01zOC85eUN1WXU5TE0vWEJEcGV4aVdXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="A17" r:id="rId19" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=M1hiNzNkTzQrTW1LUk5DbXQ2V2Z6Z0V5Y0txdEhSa2h1c3MzUjdOektkQVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="A18" r:id="rId20" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NXNrbVJzUEtKWXhiTzY1ejl5ai9yZ0V5Y0txdEhSa2h1c3MzUjdOektkQVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="A19" r:id="rId21" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RzV2Sm4yUFdoVkkyWnYvSWt0UVRib0lVSWtBQmhCN2VoN01xTTYzSEYrNFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="A20" r:id="rId22" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NzllZm9jalpYditCSURHdlE2dEluWUlVSWtBQmhCN2VoN01xTTYzSEYrNFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="A21" r:id="rId23" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=bVIrdExTZlh2eENMN3BaQ2FkbEFUaWtOL2JHeW13TWpUMjM3NCtSdlVSTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="A22" r:id="rId24" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UFczOFgwZlcra0ZSSE0zWnF4V3dFWFpadDJuK0c2QlFUU1JZcENzUDNmTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="A23" r:id="rId25" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NFlwR1FhL0hxV0RxNmQrNTZLSG9wTEUrNU9VMDVLNEtDenc3QlR0YWR2WVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0=" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="A24" r:id="rId26" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=QjhzeXVOSmJQcjkrRU5Gck9EQU53UEJPNmZqWldEcU1CZkxxbkxVdU41eldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="A25" r:id="rId27" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=eG1GeXlMbmppaUR4MmR1UWoxRFQwc002Ymc0bVdPSGRNdkhCdzVzTTZ6dldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="A26" r:id="rId28" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=OGJLNUVtUDFiR1ZxaWRuYVp4RjBhNkdidG5vVGdFTmM0bFA0Q3ZTWnZNL1dqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="A27" r:id="rId29" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=ZDkvZHRCWGk3TC9uZnZaNnhLUHA3Wkd5WWhpS2Y2OEZabTdUdDN1aXYyeldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="A28" r:id="rId30" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=LzlFeEVYSm54MmlKWXY2ejFCWWtKVlREYnJzQWtxMll4djNITUF4U3g1VFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="A29" r:id="rId31" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UGNKdGhPeGM3NGh5dndYZHlxUGZFU2U0ZFpja3JSd3R4dk5WT1ArUmJrRFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="A30" r:id="rId32" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SEhZTkdmeFRNcldIa2UxOTFEZGx2d1ova0VBWjl1clpvUjZhUEhEM0huSFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="A31" r:id="rId33" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=R0FGYWhRY1IwRW1WeTI4ZENqVnc4ZExkTm5MeFRhbEh6c1ZwdVptR3ordldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0=" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_WPNO&amp;order=Descending&amp;isNew=false"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_NAME&amp;order=Descending&amp;isNew=false"/>
+    <hyperlink ref="J3" r:id="rId3" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_EXPIRY_DT&amp;order=Descending&amp;isNew=false"/>
+    <hyperlink ref="K3" r:id="rId4" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_LVRATE&amp;order=Descending&amp;isNew=false"/>
+    <hyperlink ref="L3" r:id="rId5" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ735OnloadAction&amp;sortTypeKey=WPOL_WORKER_SORT_BY_R1_R2_IND&amp;order=Descending&amp;isNew=false"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=dW5qSnNrNnJoNW1tRzJ0U09KamwvRDVMVlIwZGF2UjZmMUZNcktHdWQxUVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A5" r:id="rId7" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SFErZnF0YnB6NTZ1dUlrS29SYmxFcXJEUjlCakFpSXYrNXdsMldYaHVHTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A6" r:id="rId8" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YklhRnZrWWEyQTd6cmZwNnBCMGYxRlQ5RmwzSGdhRmRrM0FqZDhOQ01nRVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A7" r:id="rId9" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a0NRbldSd0ZvK0x3c1ZPRGQreFJBUzdsRHNSYTVHZW5KQWtvSS83VnZxZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A8" r:id="rId10" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=a09YbEQ2SHJBQXp0eWd4d1EySE0zQjZ3OHRaemlWcGRLbGVNTFoyWjlBSVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A9" r:id="rId11" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Y2cweVZCNGQ4eHZwZXNEWnpGaThrMVg1QUpqRVFqVTJJWndacHp5V2k5WVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A10" r:id="rId12" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=YjZXRXBhaENVMzlxUWdsR3VaVklkUmpUSlZhMEpROSthbnRNL0YvZEpQMFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A11" r:id="rId13" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=aTc5S0VOZUR0S3ZoTEdUd25BYTBTT3F2UUd5K3ArVmlyZWlucVdNTFZNb1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A12" r:id="rId14" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Z3F2SHI5UHovY3UxL1BOWVJOSlhvMWk2d0FnUjVNRkNQS3BaTXZ3VDhOY1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A13" r:id="rId15" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=MGlrT000QlY5RHA4M3prMndNeUtReVdXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A14" r:id="rId16" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=Yk1nN3FHSTlLWUJKbEFwOUplMXN3U1dXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A15" r:id="rId17" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NjExaE40QngydjQ3eFNPUEdhOC9zU1dXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A16" r:id="rId18" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=T01zOC85eUN1WXU5TE0vWEJEcGV4aVdXbm5oK3ErN3ZPZFZrbXMvSjVNZ1A0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A17" r:id="rId19" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=M1hiNzNkTzQrTW1LUk5DbXQ2V2Z6Z0V5Y0txdEhSa2h1c3MzUjdOektkQVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A18" r:id="rId20" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NXNrbVJzUEtKWXhiTzY1ejl5ai9yZ0V5Y0txdEhSa2h1c3MzUjdOektkQVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A19" r:id="rId21" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=RzV2Sm4yUFdoVkkyWnYvSWt0UVRib0lVSWtBQmhCN2VoN01xTTYzSEYrNFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A20" r:id="rId22" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NzllZm9jalpYditCSURHdlE2dEluWUlVSWtBQmhCN2VoN01xTTYzSEYrNFA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A21" r:id="rId23" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=bVIrdExTZlh2eENMN3BaQ2FkbEFUaWtOL2JHeW13TWpUMjM3NCtSdlVSTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A22" r:id="rId24" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UFczOFgwZlcra0ZSSE0zWnF4V3dFWFpadDJuK0c2QlFUU1JZcENzUDNmTVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A23" r:id="rId25" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=NFlwR1FhL0hxV0RxNmQrNTZLSG9wTEUrNU9VMDVLNEtDenc3QlR0YWR2WVA0dkMxMEVXblZjdFNMMUpKS2M5T0NXeDNVYWlBUVN5RwpkZ1R2VExtQ1ZnPT0="/>
+    <hyperlink ref="A24" r:id="rId26" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=QjhzeXVOSmJQcjkrRU5Gck9EQU53UEJPNmZqWldEcU1CZkxxbkxVdU41eldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A25" r:id="rId27" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=eG1GeXlMbmppaUR4MmR1UWoxRFQwc002Ymc0bVdPSGRNdkhCdzVzTTZ6dldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A26" r:id="rId28" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=OGJLNUVtUDFiR1ZxaWRuYVp4RjBhNkdidG5vVGdFTmM0bFA0Q3ZTWnZNL1dqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A27" r:id="rId29" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=ZDkvZHRCWGk3TC9uZnZaNnhLUHA3Wkd5WWhpS2Y2OEZabTdUdDN1aXYyeldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A28" r:id="rId30" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=LzlFeEVYSm54MmlKWXY2ejFCWWtKVlREYnJzQWtxMll4djNITUF4U3g1VFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A29" r:id="rId31" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=UGNKdGhPeGM3NGh5dndYZHlxUGZFU2U0ZFpja3JSd3R4dk5WT1ArUmJrRFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A30" r:id="rId32" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=SEhZTkdmeFRNcldIa2UxOTFEZGx2d1ova0VBWjl1clpvUjZhUEhEM0huSFdqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
+    <hyperlink ref="A31" r:id="rId33" display="https://wponline.mom.gov.sg/WPOLEQController?action=PIWPSOLEQ732EOnloadAction&amp;EURL=R0FGYWhRY1IwRW1WeTI4ZENqVnc4ZExkTm5MeFRhbEh6c1ZwdVptR3ordldqN2IzTHBHMTZYRnc4MGhHSmRwSWt1djFhY2JUVkxDNQp4RVEzQ1BPL3N3PT0="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
